--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\python\NEWASMENTE\data\listuser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588AADB2-D210-4228-AE0F-8BDF017A2B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984A31B-EEBE-4866-9F24-7F8A925E9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40E72639-B2E7-4E94-BBE8-621C90A23719}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="listuserid" sheetId="2" r:id="rId2"/>
+    <sheet name="daftar user" sheetId="3" r:id="rId3"/>
+    <sheet name="listulp" sheetId="4" r:id="rId4"/>
+    <sheet name="admin" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
   <si>
     <t>NIP</t>
   </si>
   <si>
+    <t>KODE_UNIT</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
     <t>Password_AP2T</t>
   </si>
   <si>
@@ -39,22 +47,22 @@
     <t>Password Webmail</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Jabatan</t>
+    <t>AP2T</t>
+  </si>
+  <si>
+    <t>ACMT</t>
+  </si>
+  <si>
+    <t>SAP</t>
   </si>
   <si>
     <t>92174036ZY</t>
   </si>
   <si>
-    <t>KODE_UNIT</t>
-  </si>
-  <si>
     <t>LUCKY ANDIKA NOVARIO</t>
   </si>
   <si>
-    <t>Minasa-30</t>
+    <t>TL TEKNIK</t>
   </si>
   <si>
     <t>8208006F</t>
@@ -63,12 +71,12 @@
     <t>DOMINGGUS PALALLO</t>
   </si>
   <si>
-    <t>TL TEKNIK</t>
-  </si>
-  <si>
     <t>Des@2022</t>
   </si>
   <si>
+    <t>dominggus.palallo</t>
+  </si>
+  <si>
     <t>94172067ZY</t>
   </si>
   <si>
@@ -78,6 +86,9 @@
     <t>TL YAN GAN DAN ADM</t>
   </si>
   <si>
+    <t>Dummy</t>
+  </si>
+  <si>
     <t>9009026F</t>
   </si>
   <si>
@@ -93,17 +104,545 @@
     <t>AHMAD ZULFIQAR RUSLAN SANUSI</t>
   </si>
   <si>
+    <t>8908062F</t>
+  </si>
+  <si>
     <t>JASRIYANTO</t>
   </si>
   <si>
-    <t>8908062F</t>
+    <t>32131.vendor</t>
+  </si>
+  <si>
+    <t>luarbiasa2023</t>
+  </si>
+  <si>
+    <t>9615040FY</t>
+  </si>
+  <si>
+    <t>ASDAR</t>
+  </si>
+  <si>
+    <t>JT DAL APP</t>
+  </si>
+  <si>
+    <t>Asdar-41</t>
+  </si>
+  <si>
+    <t>asdar02</t>
+  </si>
+  <si>
+    <t>9615040-a28</t>
+  </si>
+  <si>
+    <t>96191277ZY</t>
+  </si>
+  <si>
+    <t>SEGAL MANCINI SUROSO</t>
+  </si>
+  <si>
+    <t>Takalar-004</t>
+  </si>
+  <si>
+    <t>segal.suroso65</t>
+  </si>
+  <si>
+    <t>9218601ZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ILHAM</t>
+  </si>
+  <si>
+    <t>95171290ZY</t>
+  </si>
+  <si>
+    <t>AZHAR FIRDAUS</t>
+  </si>
+  <si>
+    <t>Teknik@123455</t>
+  </si>
+  <si>
+    <t>93171071ZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZQAN WINDRATAMA</t>
+  </si>
+  <si>
+    <t>Malino+07</t>
+  </si>
+  <si>
+    <t>8808075F</t>
+  </si>
+  <si>
+    <t>DIAN PANJI WINARDIN</t>
+  </si>
+  <si>
+    <t>9218613ZY</t>
+  </si>
+  <si>
+    <t>BASTIAN OKTAVIANUS BEAT</t>
+  </si>
+  <si>
+    <t>9318654ZY</t>
+  </si>
+  <si>
+    <t>ANDRY KARUNIA RUPANG</t>
+  </si>
+  <si>
+    <t>PLN123@feb</t>
+  </si>
+  <si>
+    <t>94191262ZY</t>
+  </si>
+  <si>
+    <t>NUGRAHA PAMUGKAS</t>
+  </si>
+  <si>
+    <t>Pln@jan01</t>
+  </si>
+  <si>
+    <t>94171594ZY</t>
+  </si>
+  <si>
+    <t>APRIANSYAH PARAPAT</t>
+  </si>
+  <si>
+    <t>Everfree@feb23</t>
+  </si>
+  <si>
+    <t>9518704ZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD YUSUF</t>
+  </si>
+  <si>
+    <t>Tomoni@11</t>
+  </si>
+  <si>
+    <t>8908086F</t>
+  </si>
+  <si>
+    <t>SYARIFUDDIN</t>
+  </si>
+  <si>
+    <t>Syarif_003</t>
+  </si>
+  <si>
+    <t>9418669ZY</t>
+  </si>
+  <si>
+    <t>MUH SYAIFUL LUTFI</t>
+  </si>
+  <si>
+    <t>94162226ZY</t>
+  </si>
+  <si>
+    <t>RAHMATULLAH DAHLAN</t>
+  </si>
+  <si>
+    <t>Energi-29</t>
+  </si>
+  <si>
+    <t>9517729ZY</t>
+  </si>
+  <si>
+    <t>FAHRUDDIN SUHADAK</t>
+  </si>
+  <si>
+    <t>Odading$4444</t>
+  </si>
+  <si>
+    <t>9317717ZY</t>
+  </si>
+  <si>
+    <t>RESKI FATHUR RAHMAN NUR</t>
+  </si>
+  <si>
+    <t>9009002F</t>
+  </si>
+  <si>
+    <t>FADLI HASBI</t>
+  </si>
+  <si>
+    <t>Mei-2023</t>
+  </si>
+  <si>
+    <t>9010010F</t>
+  </si>
+  <si>
+    <t>IKHSAN SIDENG</t>
+  </si>
+  <si>
+    <t>95191884ZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IRFAN</t>
+  </si>
+  <si>
+    <t>Mtg-0423</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>kode_unit</t>
+  </si>
+  <si>
+    <t>nomor_telfon</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Muhammad Luthfil</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Albert Paruntungan N</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Asdar</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>fulan</t>
+  </si>
+  <si>
+    <t>ikram</t>
+  </si>
+  <si>
+    <t>081341188809</t>
+  </si>
+  <si>
+    <t>asri</t>
+  </si>
+  <si>
+    <t>085231714066</t>
+  </si>
+  <si>
+    <t>Hanum</t>
+  </si>
+  <si>
+    <t>082161880813</t>
+  </si>
+  <si>
+    <t>Jasry</t>
+  </si>
+  <si>
+    <t>081342410900</t>
+  </si>
+  <si>
+    <t>Tab sgm</t>
+  </si>
+  <si>
+    <t>081345675654</t>
+  </si>
+  <si>
+    <t>Nur Ika</t>
+  </si>
+  <si>
+    <t>082194276969</t>
+  </si>
+  <si>
+    <t>Pak Panji</t>
+  </si>
+  <si>
+    <t>08114032805</t>
+  </si>
+  <si>
+    <t>Alief</t>
+  </si>
+  <si>
+    <t>082195035466</t>
+  </si>
+  <si>
+    <t>Imam</t>
+  </si>
+  <si>
+    <t>082253715772</t>
+  </si>
+  <si>
+    <t>TE UBBK</t>
+  </si>
+  <si>
+    <t>085274843541</t>
+  </si>
+  <si>
+    <t>Rezki</t>
+  </si>
+  <si>
+    <t>082293371125</t>
+  </si>
+  <si>
+    <t>082274813397</t>
+  </si>
+  <si>
+    <t>RAHCMAT HIDAYAT</t>
+  </si>
+  <si>
+    <t>085696900940</t>
+  </si>
+  <si>
+    <t>Azwar SGM</t>
+  </si>
+  <si>
+    <t>082346452934</t>
+  </si>
+  <si>
+    <t>Abdul Rais</t>
+  </si>
+  <si>
+    <t>082194509357</t>
+  </si>
+  <si>
+    <t>Nugroho</t>
+  </si>
+  <si>
+    <t>082190713939</t>
+  </si>
+  <si>
+    <t>Hasruddin</t>
+  </si>
+  <si>
+    <t>085399251096</t>
+  </si>
+  <si>
+    <t>Hajar</t>
+  </si>
+  <si>
+    <t>085394588309</t>
+  </si>
+  <si>
+    <t>bair</t>
+  </si>
+  <si>
+    <t>081241111435</t>
+  </si>
+  <si>
+    <t>Syarifuddin Tomoni</t>
+  </si>
+  <si>
+    <t>081242815101</t>
+  </si>
+  <si>
+    <t>Fahruddin KBJ</t>
+  </si>
+  <si>
+    <t>081343148404</t>
+  </si>
+  <si>
+    <t>Adis Bajeng</t>
+  </si>
+  <si>
+    <t>082265161451</t>
+  </si>
+  <si>
+    <t>Ime Bajeng</t>
+  </si>
+  <si>
+    <t>081242952584</t>
+  </si>
+  <si>
+    <t>Optel Tomoni</t>
+  </si>
+  <si>
+    <t>082331054416</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf</t>
+  </si>
+  <si>
+    <t>081139903991</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>081321</t>
+  </si>
+  <si>
+    <t>fikar</t>
+  </si>
+  <si>
+    <t>081254</t>
+  </si>
+  <si>
+    <t>Ihksan Rahman</t>
+  </si>
+  <si>
+    <t>082192511997</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>085255679990</t>
+  </si>
+  <si>
+    <t>wahyudin</t>
+  </si>
+  <si>
+    <t>082398215904</t>
+  </si>
+  <si>
+    <t>reza dwi</t>
+  </si>
+  <si>
+    <t>082177362263</t>
+  </si>
+  <si>
+    <t>Amry</t>
+  </si>
+  <si>
+    <t>081352353300</t>
+  </si>
+  <si>
+    <t>command center</t>
+  </si>
+  <si>
+    <t>081245492736</t>
+  </si>
+  <si>
+    <t>Try azhari</t>
+  </si>
+  <si>
+    <t>085245775418</t>
+  </si>
+  <si>
+    <t>sofyan sgm</t>
+  </si>
+  <si>
+    <t>085345407759</t>
+  </si>
+  <si>
+    <t>Desy</t>
+  </si>
+  <si>
+    <t>081340894560</t>
+  </si>
+  <si>
+    <t>Rais Syihab</t>
+  </si>
+  <si>
+    <t>082255222620</t>
+  </si>
+  <si>
+    <t>Ilmi bajeng</t>
+  </si>
+  <si>
+    <t>085396172227</t>
+  </si>
+  <si>
+    <t>muh irfan</t>
+  </si>
+  <si>
+    <t>081280012652</t>
+  </si>
+  <si>
+    <t>zul</t>
+  </si>
+  <si>
+    <t>0853970607804</t>
+  </si>
+  <si>
+    <t>nugi</t>
+  </si>
+  <si>
+    <t>082350565303</t>
+  </si>
+  <si>
+    <t>apkt mtg</t>
+  </si>
+  <si>
+    <t>082187035790</t>
+  </si>
+  <si>
+    <t>ipul mtg</t>
+  </si>
+  <si>
+    <t>085298764268</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>Dita</t>
+  </si>
+  <si>
+    <t>94171284zy</t>
+  </si>
+  <si>
+    <t>IMAM SYAIFUL ROCHIM</t>
+  </si>
+  <si>
+    <t>8809039F</t>
+  </si>
+  <si>
+    <t>ARIFIN SUGIANTO</t>
+  </si>
+  <si>
+    <t>Baubaukota@06</t>
+  </si>
+  <si>
+    <t>Andy pradipta</t>
+  </si>
+  <si>
+    <t>081340364442</t>
+  </si>
+  <si>
+    <t>94162178ZY</t>
+  </si>
+  <si>
+    <t>BAKHARUDDIN YUSUF</t>
+  </si>
+  <si>
+    <t>Bakharuddin yusuf</t>
+  </si>
+  <si>
+    <t>081329475847</t>
+  </si>
+  <si>
+    <t>Isran sutoyo</t>
+  </si>
+  <si>
+    <t>08114009040</t>
+  </si>
+  <si>
+    <t>Nugraha Makale</t>
+  </si>
+  <si>
+    <t>082120543664</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>date_add</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juli-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,12 +654,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,12 +678,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,149 +998,2119 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A259321C-DE4D-459D-824A-E822DE18B5BE}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>32131</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>32111</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44927</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>32111</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>32111</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>32131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>32131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>32131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>32131</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>32111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>32151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44927</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>32151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>32640</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>32161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>32161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>32161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>32620</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>32620</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>32131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="E17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>32620</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>32650</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>32650</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>32650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>32141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>32141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>32141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>32121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>32121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>32121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{BF25A527-2812-4650-A9C1-7C5F49D2B156}"/>
+    <hyperlink ref="E2" r:id="rId1" display="Mei@2023" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1029804860</v>
+      </c>
+      <c r="C2" s="5">
+        <v>32131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>81321863455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5345386385</v>
+      </c>
+      <c r="C3">
+        <v>32100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>85311497918</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>745682086</v>
+      </c>
+      <c r="C4">
+        <v>32131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>987123</v>
+      </c>
+      <c r="C5">
+        <v>32189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1798642805</v>
+      </c>
+      <c r="C6">
+        <v>32151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5945838748</v>
+      </c>
+      <c r="C7">
+        <v>32111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>557351629</v>
+      </c>
+      <c r="C8">
+        <v>32131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>71322245</v>
+      </c>
+      <c r="C9">
+        <v>32131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5360070360</v>
+      </c>
+      <c r="C10">
+        <v>32131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1580836071</v>
+      </c>
+      <c r="C11">
+        <v>32131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>715245598</v>
+      </c>
+      <c r="C12">
+        <v>32161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1493768521</v>
+      </c>
+      <c r="C13">
+        <v>32161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2027685565</v>
+      </c>
+      <c r="C14">
+        <v>32640</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5650448412</v>
+      </c>
+      <c r="C15">
+        <v>32810</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>650854863</v>
+      </c>
+      <c r="C16">
+        <v>32810</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>344431915</v>
+      </c>
+      <c r="C17">
+        <v>32151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2067796448</v>
+      </c>
+      <c r="C18">
+        <v>32151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1667444834</v>
+      </c>
+      <c r="C19">
+        <v>32131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5604822623</v>
+      </c>
+      <c r="C20">
+        <v>32131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5147209695</v>
+      </c>
+      <c r="C21">
+        <v>32131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>982788680</v>
+      </c>
+      <c r="C22">
+        <v>32810</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5300064943</v>
+      </c>
+      <c r="C23">
+        <v>32131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5382040930</v>
+      </c>
+      <c r="C24">
+        <v>32131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>776823206</v>
+      </c>
+      <c r="C25">
+        <v>32650</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1310276544</v>
+      </c>
+      <c r="C26">
+        <v>32141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>926044995</v>
+      </c>
+      <c r="C27">
+        <v>32141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5139061026</v>
+      </c>
+      <c r="C28">
+        <v>32141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6009006687</v>
+      </c>
+      <c r="C29">
+        <v>32650</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>557226088</v>
+      </c>
+      <c r="C30">
+        <v>32650</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1236555765</v>
+      </c>
+      <c r="C31">
+        <v>32131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>926888461</v>
+      </c>
+      <c r="C32">
+        <v>32131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1283390324</v>
+      </c>
+      <c r="C33">
+        <v>32131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1028196304</v>
+      </c>
+      <c r="C34">
+        <v>32131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1418659301</v>
+      </c>
+      <c r="C35">
+        <v>32131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1994514098</v>
+      </c>
+      <c r="C36">
+        <v>32131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2026367676</v>
+      </c>
+      <c r="C37">
+        <v>32131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5237771279</v>
+      </c>
+      <c r="C38">
+        <v>32131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1742325204</v>
+      </c>
+      <c r="C39">
+        <v>32131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5224528578</v>
+      </c>
+      <c r="C40">
+        <v>32131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>451836660</v>
+      </c>
+      <c r="C41">
+        <v>32131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5718252642</v>
+      </c>
+      <c r="C42">
+        <v>32131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5927848808</v>
+      </c>
+      <c r="C43">
+        <v>32141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1633651490</v>
+      </c>
+      <c r="C44">
+        <v>32121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1409136422</v>
+      </c>
+      <c r="C45">
+        <v>32121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5987616441</v>
+      </c>
+      <c r="C46">
+        <v>32121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5583764562</v>
+      </c>
+      <c r="C47">
+        <v>32121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5665830353</v>
+      </c>
+      <c r="C48">
+        <v>32121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1608202628</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>32640</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <v>32810</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1157932876</v>
+      </c>
+      <c r="J4">
+        <v>32810</v>
+      </c>
+      <c r="K4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5">
+        <v>32810</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1311477493</v>
+      </c>
+      <c r="J5">
+        <v>32810</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>5051605329</v>
+      </c>
+      <c r="J6">
+        <v>32810</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>607493759</v>
+      </c>
+      <c r="J7">
+        <v>32620</v>
+      </c>
+      <c r="K7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1236555765</v>
+      </c>
+      <c r="C9">
+        <v>32131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>926888461</v>
+      </c>
+      <c r="C10">
+        <v>32131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1283390324</v>
+      </c>
+      <c r="C11">
+        <v>32131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1028196304</v>
+      </c>
+      <c r="C12">
+        <v>32131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1418659301</v>
+      </c>
+      <c r="C13">
+        <v>32131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1994514098</v>
+      </c>
+      <c r="C14">
+        <v>32131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2026367676</v>
+      </c>
+      <c r="C15">
+        <v>32131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5237771279</v>
+      </c>
+      <c r="C16">
+        <v>32131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1742325204</v>
+      </c>
+      <c r="C17">
+        <v>32131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5224528578</v>
+      </c>
+      <c r="C18">
+        <v>32131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>451836660</v>
+      </c>
+      <c r="C19">
+        <v>32131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5718252642</v>
+      </c>
+      <c r="C20">
+        <v>32131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>32161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>32121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>32151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1029804860</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984A31B-EEBE-4866-9F24-7F8A925E9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E04A58-E1C0-4A89-A5B1-6E0D3E9A0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="205">
   <si>
     <t>NIP</t>
   </si>
@@ -113,9 +113,6 @@
     <t>32131.vendor</t>
   </si>
   <si>
-    <t>luarbiasa2023</t>
-  </si>
-  <si>
     <t>9615040FY</t>
   </si>
   <si>
@@ -636,6 +633,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Juli-2023</t>
+  </si>
+  <si>
+    <t>relative357</t>
+  </si>
+  <si>
+    <t>Akun</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -1069,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1189,7 +1192,7 @@
         <v>32131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1197,25 +1200,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>32111</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -1223,22 +1226,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>32151</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="4">
         <v>44927</v>
@@ -1249,13 +1252,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>32151</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1269,19 +1272,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>32640</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
@@ -1289,19 +1292,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>32161</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -1309,13 +1312,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>32161</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1329,13 +1332,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>32161</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1349,19 +1352,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>32620</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
@@ -1369,19 +1372,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>32620</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
         <v>7</v>
@@ -1389,19 +1392,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>32620</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>7</v>
@@ -1409,19 +1412,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>32650</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>7</v>
@@ -1429,19 +1432,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>32650</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>7</v>
@@ -1449,13 +1452,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>32650</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1469,19 +1472,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>32141</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
         <v>7</v>
@@ -1489,19 +1492,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>32141</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
@@ -1509,13 +1512,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>32141</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1529,19 +1532,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>32121</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -1549,13 +1552,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>32121</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -1569,19 +1572,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>32121</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -1606,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1620,22 +1623,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1649,13 +1652,13 @@
         <v>32131</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>81321863455</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1669,13 +1672,13 @@
         <v>32100</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>85311497918</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1689,13 +1692,13 @@
         <v>32131</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1709,13 +1712,13 @@
         <v>32189</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1729,13 +1732,13 @@
         <v>32151</v>
       </c>
       <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1749,13 +1752,13 @@
         <v>32111</v>
       </c>
       <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1769,13 +1772,13 @@
         <v>32131</v>
       </c>
       <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1789,13 +1792,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1809,13 +1812,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
         <v>106</v>
       </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1829,13 +1832,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
         <v>108</v>
       </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1849,13 +1852,13 @@
         <v>32161</v>
       </c>
       <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1869,13 +1872,13 @@
         <v>32161</v>
       </c>
       <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1889,13 +1892,13 @@
         <v>32640</v>
       </c>
       <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1909,13 +1912,13 @@
         <v>32810</v>
       </c>
       <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1929,13 +1932,13 @@
         <v>32810</v>
       </c>
       <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1949,13 +1952,13 @@
         <v>32151</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1969,13 +1972,13 @@
         <v>32151</v>
       </c>
       <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1989,13 +1992,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
         <v>123</v>
       </c>
-      <c r="E19" t="s">
-        <v>124</v>
-      </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2009,13 +2012,13 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
         <v>125</v>
       </c>
-      <c r="E20" t="s">
-        <v>126</v>
-      </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2029,13 +2032,13 @@
         <v>32131</v>
       </c>
       <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
         <v>127</v>
       </c>
-      <c r="E21" t="s">
-        <v>128</v>
-      </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2049,13 +2052,13 @@
         <v>32810</v>
       </c>
       <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" t="s">
-        <v>130</v>
-      </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2069,13 +2072,13 @@
         <v>32131</v>
       </c>
       <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
         <v>131</v>
       </c>
-      <c r="E23" t="s">
-        <v>132</v>
-      </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2089,13 +2092,13 @@
         <v>32131</v>
       </c>
       <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
         <v>133</v>
       </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2109,13 +2112,13 @@
         <v>32650</v>
       </c>
       <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
         <v>135</v>
       </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2129,13 +2132,13 @@
         <v>32141</v>
       </c>
       <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="E26" t="s">
-        <v>138</v>
-      </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2149,13 +2152,13 @@
         <v>32141</v>
       </c>
       <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
         <v>139</v>
       </c>
-      <c r="E27" t="s">
-        <v>140</v>
-      </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2169,13 +2172,13 @@
         <v>32141</v>
       </c>
       <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
         <v>141</v>
       </c>
-      <c r="E28" t="s">
-        <v>142</v>
-      </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2189,13 +2192,13 @@
         <v>32650</v>
       </c>
       <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
         <v>143</v>
       </c>
-      <c r="E29" t="s">
-        <v>144</v>
-      </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2209,13 +2212,13 @@
         <v>32650</v>
       </c>
       <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
         <v>145</v>
       </c>
-      <c r="E30" t="s">
-        <v>146</v>
-      </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2229,13 +2232,13 @@
         <v>32131</v>
       </c>
       <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
         <v>147</v>
       </c>
-      <c r="E31" t="s">
-        <v>148</v>
-      </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2249,13 +2252,13 @@
         <v>32131</v>
       </c>
       <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
         <v>149</v>
       </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2269,13 +2272,13 @@
         <v>32131</v>
       </c>
       <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
         <v>151</v>
       </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2289,13 +2292,13 @@
         <v>32131</v>
       </c>
       <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
         <v>153</v>
       </c>
-      <c r="E34" t="s">
-        <v>154</v>
-      </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2309,13 +2312,13 @@
         <v>32131</v>
       </c>
       <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
         <v>155</v>
       </c>
-      <c r="E35" t="s">
-        <v>156</v>
-      </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2329,13 +2332,13 @@
         <v>32131</v>
       </c>
       <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2349,13 +2352,13 @@
         <v>32131</v>
       </c>
       <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
         <v>159</v>
       </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -2369,13 +2372,13 @@
         <v>32131</v>
       </c>
       <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
         <v>161</v>
       </c>
-      <c r="E38" t="s">
-        <v>162</v>
-      </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2389,13 +2392,13 @@
         <v>32131</v>
       </c>
       <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
         <v>163</v>
       </c>
-      <c r="E39" t="s">
-        <v>164</v>
-      </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2409,13 +2412,13 @@
         <v>32131</v>
       </c>
       <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
         <v>165</v>
       </c>
-      <c r="E40" t="s">
-        <v>166</v>
-      </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2429,13 +2432,13 @@
         <v>32131</v>
       </c>
       <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
         <v>167</v>
       </c>
-      <c r="E41" t="s">
-        <v>168</v>
-      </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -2449,13 +2452,13 @@
         <v>32131</v>
       </c>
       <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
         <v>169</v>
       </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2469,13 +2472,13 @@
         <v>32141</v>
       </c>
       <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
         <v>171</v>
       </c>
-      <c r="E43" t="s">
-        <v>172</v>
-      </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2489,13 +2492,13 @@
         <v>32121</v>
       </c>
       <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2509,13 +2512,13 @@
         <v>32121</v>
       </c>
       <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
         <v>175</v>
       </c>
-      <c r="E45" t="s">
-        <v>176</v>
-      </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2529,13 +2532,13 @@
         <v>32121</v>
       </c>
       <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
         <v>177</v>
       </c>
-      <c r="E46" t="s">
-        <v>178</v>
-      </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2549,13 +2552,13 @@
         <v>32121</v>
       </c>
       <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" t="s">
-        <v>180</v>
-      </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2569,13 +2572,13 @@
         <v>32121</v>
       </c>
       <c r="D48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s">
         <v>181</v>
       </c>
-      <c r="E48" t="s">
-        <v>182</v>
-      </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2601,10 +2604,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2612,18 +2615,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -2637,19 +2640,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -2661,24 +2664,24 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" t="s">
         <v>190</v>
       </c>
-      <c r="L4" t="s">
-        <v>191</v>
-      </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -2696,13 +2699,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2713,13 +2716,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" t="s">
         <v>196</v>
       </c>
-      <c r="L6" t="s">
-        <v>197</v>
-      </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2730,13 +2733,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" t="s">
         <v>198</v>
       </c>
-      <c r="L7" t="s">
-        <v>199</v>
-      </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -2750,13 +2753,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
         <v>147</v>
       </c>
-      <c r="E9" t="s">
-        <v>148</v>
-      </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2770,13 +2773,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2790,13 +2793,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
         <v>151</v>
       </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2810,13 +2813,13 @@
         <v>32131</v>
       </c>
       <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
         <v>153</v>
       </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2830,13 +2833,13 @@
         <v>32131</v>
       </c>
       <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
         <v>155</v>
       </c>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2850,13 +2853,13 @@
         <v>32131</v>
       </c>
       <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
         <v>157</v>
       </c>
-      <c r="E14" t="s">
-        <v>158</v>
-      </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2870,13 +2873,13 @@
         <v>32131</v>
       </c>
       <c r="D15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2890,13 +2893,13 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
         <v>161</v>
       </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2910,13 +2913,13 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
         <v>163</v>
       </c>
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2930,13 +2933,13 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2950,13 +2953,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
         <v>167</v>
       </c>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2970,13 +2973,13 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" t="s">
         <v>169</v>
       </c>
-      <c r="E20" t="s">
-        <v>170</v>
-      </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3003,10 +3006,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3078,22 +3081,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3104,10 +3107,10 @@
         <v>1029804860</v>
       </c>
       <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E04A58-E1C0-4A89-A5B1-6E0D3E9A0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D62F8FD-F96B-488B-A14A-D311FB0DB789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="listuserid" sheetId="2" r:id="rId2"/>
-    <sheet name="daftar user" sheetId="3" r:id="rId3"/>
-    <sheet name="listulp" sheetId="4" r:id="rId4"/>
-    <sheet name="admin" sheetId="5" r:id="rId5"/>
+    <sheet name="ts" sheetId="6" r:id="rId2"/>
+    <sheet name="listuserid" sheetId="2" r:id="rId3"/>
+    <sheet name="daftar user" sheetId="3" r:id="rId4"/>
+    <sheet name="listulp" sheetId="4" r:id="rId5"/>
+    <sheet name="admin" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="211">
   <si>
     <t>NIP</t>
   </si>
@@ -639,6 +640,24 @@
   </si>
   <si>
     <t>Akun</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>up3</t>
+  </si>
+  <si>
+    <t>32AMS</t>
+  </si>
+  <si>
+    <t>upi</t>
+  </si>
+  <si>
+    <t>32APL</t>
+  </si>
+  <si>
+    <t>32ABB</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1606,11 +1625,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9778E87-E21B-44D4-B8D2-20E22F42CCAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1621,7 +1660,7 @@
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -1640,8 +1679,14 @@
       <c r="F1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1660,8 +1705,14 @@
       <c r="F2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1680,8 +1731,14 @@
       <c r="F3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1700,8 +1757,14 @@
       <c r="F4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1720,8 +1783,14 @@
       <c r="F5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1740,8 +1809,14 @@
       <c r="F6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1760,8 +1835,14 @@
       <c r="F7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1780,8 +1861,14 @@
       <c r="F8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1800,8 +1887,14 @@
       <c r="F9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1820,8 +1913,14 @@
       <c r="F10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1840,8 +1939,14 @@
       <c r="F11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1860,8 +1965,14 @@
       <c r="F12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1880,8 +1991,14 @@
       <c r="F13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1900,8 +2017,14 @@
       <c r="F14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1920,8 +2043,14 @@
       <c r="F15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1940,8 +2069,14 @@
       <c r="F16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1960,8 +2095,14 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1980,8 +2121,14 @@
       <c r="F18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2000,8 +2147,14 @@
       <c r="F19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2020,8 +2173,14 @@
       <c r="F20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2040,8 +2199,14 @@
       <c r="F21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2060,8 +2225,14 @@
       <c r="F22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2080,8 +2251,14 @@
       <c r="F23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2100,8 +2277,14 @@
       <c r="F24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2120,8 +2303,14 @@
       <c r="F25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2140,8 +2329,14 @@
       <c r="F26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2160,8 +2355,14 @@
       <c r="F27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2180,8 +2381,14 @@
       <c r="F28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2200,8 +2407,14 @@
       <c r="F29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2220,8 +2433,14 @@
       <c r="F30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2240,8 +2459,14 @@
       <c r="F31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2260,8 +2485,14 @@
       <c r="F32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2280,8 +2511,14 @@
       <c r="F33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2300,8 +2537,14 @@
       <c r="F34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2320,8 +2563,14 @@
       <c r="F35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2340,8 +2589,14 @@
       <c r="F36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2360,8 +2615,14 @@
       <c r="F37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2380,8 +2641,14 @@
       <c r="F38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2400,8 +2667,14 @@
       <c r="F39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2420,8 +2693,14 @@
       <c r="F40" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2440,8 +2719,14 @@
       <c r="F41" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2460,8 +2745,14 @@
       <c r="F42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2480,8 +2771,14 @@
       <c r="F43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2500,8 +2797,14 @@
       <c r="F44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2520,8 +2823,14 @@
       <c r="F45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2540,8 +2849,14 @@
       <c r="F46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2560,8 +2875,14 @@
       <c r="F47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2579,6 +2900,12 @@
       </c>
       <c r="F48" t="s">
         <v>95</v>
+      </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -2991,7 +3318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3065,7 +3392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D62F8FD-F96B-488B-A14A-D311FB0DB789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B51EDD-B4B6-4BB8-B8FD-AE2C8D15696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,25 @@
     <sheet name="listulp" sheetId="4" r:id="rId5"/>
     <sheet name="admin" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>NIP</t>
   </si>
@@ -300,171 +313,12 @@
     <t>owner</t>
   </si>
   <si>
-    <t>Albert Paruntungan N</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Asdar</t>
-  </si>
-  <si>
-    <t>0813</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
-    <t>fulan</t>
-  </si>
-  <si>
-    <t>ikram</t>
-  </si>
-  <si>
-    <t>081341188809</t>
-  </si>
-  <si>
-    <t>asri</t>
-  </si>
-  <si>
-    <t>085231714066</t>
-  </si>
-  <si>
-    <t>Hanum</t>
-  </si>
-  <si>
-    <t>082161880813</t>
-  </si>
-  <si>
-    <t>Jasry</t>
-  </si>
-  <si>
-    <t>081342410900</t>
-  </si>
-  <si>
-    <t>Tab sgm</t>
-  </si>
-  <si>
-    <t>081345675654</t>
-  </si>
-  <si>
-    <t>Nur Ika</t>
-  </si>
-  <si>
-    <t>082194276969</t>
-  </si>
-  <si>
-    <t>Pak Panji</t>
-  </si>
-  <si>
-    <t>08114032805</t>
-  </si>
-  <si>
-    <t>Alief</t>
-  </si>
-  <si>
-    <t>082195035466</t>
-  </si>
-  <si>
-    <t>Imam</t>
-  </si>
-  <si>
-    <t>082253715772</t>
-  </si>
-  <si>
-    <t>TE UBBK</t>
-  </si>
-  <si>
-    <t>085274843541</t>
-  </si>
-  <si>
-    <t>Rezki</t>
-  </si>
-  <si>
-    <t>082293371125</t>
-  </si>
-  <si>
-    <t>082274813397</t>
-  </si>
-  <si>
-    <t>RAHCMAT HIDAYAT</t>
-  </si>
-  <si>
-    <t>085696900940</t>
-  </si>
-  <si>
-    <t>Azwar SGM</t>
-  </si>
-  <si>
-    <t>082346452934</t>
-  </si>
-  <si>
-    <t>Abdul Rais</t>
-  </si>
-  <si>
-    <t>082194509357</t>
-  </si>
-  <si>
-    <t>Nugroho</t>
-  </si>
-  <si>
-    <t>082190713939</t>
-  </si>
-  <si>
-    <t>Hasruddin</t>
-  </si>
-  <si>
-    <t>085399251096</t>
-  </si>
-  <si>
-    <t>Hajar</t>
-  </si>
-  <si>
-    <t>085394588309</t>
-  </si>
-  <si>
-    <t>bair</t>
-  </si>
-  <si>
-    <t>081241111435</t>
-  </si>
-  <si>
-    <t>Syarifuddin Tomoni</t>
-  </si>
-  <si>
-    <t>081242815101</t>
-  </si>
-  <si>
-    <t>Fahruddin KBJ</t>
-  </si>
-  <si>
-    <t>081343148404</t>
-  </si>
-  <si>
-    <t>Adis Bajeng</t>
-  </si>
-  <si>
-    <t>082265161451</t>
-  </si>
-  <si>
-    <t>Ime Bajeng</t>
-  </si>
-  <si>
-    <t>081242952584</t>
-  </si>
-  <si>
-    <t>Optel Tomoni</t>
-  </si>
-  <si>
-    <t>082331054416</t>
-  </si>
-  <si>
-    <t>Muhammad Yusuf</t>
-  </si>
-  <si>
-    <t>081139903991</t>
-  </si>
-  <si>
     <t>lucky</t>
   </si>
   <si>
@@ -537,42 +391,6 @@
     <t>082255222620</t>
   </si>
   <si>
-    <t>Ilmi bajeng</t>
-  </si>
-  <si>
-    <t>085396172227</t>
-  </si>
-  <si>
-    <t>muh irfan</t>
-  </si>
-  <si>
-    <t>081280012652</t>
-  </si>
-  <si>
-    <t>zul</t>
-  </si>
-  <si>
-    <t>0853970607804</t>
-  </si>
-  <si>
-    <t>nugi</t>
-  </si>
-  <si>
-    <t>082350565303</t>
-  </si>
-  <si>
-    <t>apkt mtg</t>
-  </si>
-  <si>
-    <t>082187035790</t>
-  </si>
-  <si>
-    <t>ipul mtg</t>
-  </si>
-  <si>
-    <t>085298764268</t>
-  </si>
-  <si>
     <t>nama</t>
   </si>
   <si>
@@ -652,12 +470,6 @@
   </si>
   <si>
     <t>upi</t>
-  </si>
-  <si>
-    <t>32APL</t>
-  </si>
-  <si>
-    <t>32ABB</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -1091,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1211,7 +1023,7 @@
         <v>32131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1636,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1646,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1680,10 +1492,10 @@
         <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1706,1205 +1518,9 @@
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="H2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5345386385</v>
-      </c>
-      <c r="C3">
-        <v>32100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>85311497918</v>
-      </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>745682086</v>
-      </c>
-      <c r="C4">
-        <v>32131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>987123</v>
-      </c>
-      <c r="C5">
-        <v>32189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1798642805</v>
-      </c>
-      <c r="C6">
-        <v>32151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5945838748</v>
-      </c>
-      <c r="C7">
-        <v>32111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>557351629</v>
-      </c>
-      <c r="C8">
-        <v>32131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>71322245</v>
-      </c>
-      <c r="C9">
-        <v>32131</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5360070360</v>
-      </c>
-      <c r="C10">
-        <v>32131</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1580836071</v>
-      </c>
-      <c r="C11">
-        <v>32131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>715245598</v>
-      </c>
-      <c r="C12">
-        <v>32161</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1493768521</v>
-      </c>
-      <c r="C13">
-        <v>32161</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2027685565</v>
-      </c>
-      <c r="C14">
-        <v>32640</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5650448412</v>
-      </c>
-      <c r="C15">
-        <v>32810</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>650854863</v>
-      </c>
-      <c r="C16">
-        <v>32810</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>344431915</v>
-      </c>
-      <c r="C17">
-        <v>32151</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2067796448</v>
-      </c>
-      <c r="C18">
-        <v>32151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1667444834</v>
-      </c>
-      <c r="C19">
-        <v>32131</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5604822623</v>
-      </c>
-      <c r="C20">
-        <v>32131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5147209695</v>
-      </c>
-      <c r="C21">
-        <v>32131</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>982788680</v>
-      </c>
-      <c r="C22">
-        <v>32810</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5300064943</v>
-      </c>
-      <c r="C23">
-        <v>32131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>5382040930</v>
-      </c>
-      <c r="C24">
-        <v>32131</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>776823206</v>
-      </c>
-      <c r="C25">
-        <v>32650</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1310276544</v>
-      </c>
-      <c r="C26">
-        <v>32141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>926044995</v>
-      </c>
-      <c r="C27">
-        <v>32141</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>5139061026</v>
-      </c>
-      <c r="C28">
-        <v>32141</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6009006687</v>
-      </c>
-      <c r="C29">
-        <v>32650</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>557226088</v>
-      </c>
-      <c r="C30">
-        <v>32650</v>
-      </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1236555765</v>
-      </c>
-      <c r="C31">
-        <v>32131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>926888461</v>
-      </c>
-      <c r="C32">
-        <v>32131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1283390324</v>
-      </c>
-      <c r="C33">
-        <v>32131</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1028196304</v>
-      </c>
-      <c r="C34">
-        <v>32131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1418659301</v>
-      </c>
-      <c r="C35">
-        <v>32131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1994514098</v>
-      </c>
-      <c r="C36">
-        <v>32131</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2026367676</v>
-      </c>
-      <c r="C37">
-        <v>32131</v>
-      </c>
-      <c r="D37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>5237771279</v>
-      </c>
-      <c r="C38">
-        <v>32131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1742325204</v>
-      </c>
-      <c r="C39">
-        <v>32131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>5224528578</v>
-      </c>
-      <c r="C40">
-        <v>32131</v>
-      </c>
-      <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>451836660</v>
-      </c>
-      <c r="C41">
-        <v>32131</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>5718252642</v>
-      </c>
-      <c r="C42">
-        <v>32131</v>
-      </c>
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H42">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>5927848808</v>
-      </c>
-      <c r="C43">
-        <v>32141</v>
-      </c>
-      <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" t="s">
-        <v>207</v>
-      </c>
-      <c r="H43">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1633651490</v>
-      </c>
-      <c r="C44">
-        <v>32121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1409136422</v>
-      </c>
-      <c r="C45">
-        <v>32121</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" t="s">
-        <v>207</v>
-      </c>
-      <c r="H45">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>5987616441</v>
-      </c>
-      <c r="C46">
-        <v>32121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" t="s">
-        <v>207</v>
-      </c>
-      <c r="H46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>5583764562</v>
-      </c>
-      <c r="C47">
-        <v>32121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" t="s">
-        <v>207</v>
-      </c>
-      <c r="H47">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>5665830353</v>
-      </c>
-      <c r="C48">
-        <v>32121</v>
-      </c>
-      <c r="D48" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48">
         <v>32</v>
       </c>
     </row>
@@ -2934,7 +1550,7 @@
         <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2942,18 +1558,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -2967,19 +1583,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -2991,24 +1607,24 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -3026,13 +1642,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -3043,13 +1659,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -3060,13 +1676,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -3080,13 +1696,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -3100,13 +1716,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -3120,13 +1736,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -3140,13 +1756,13 @@
         <v>32131</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -3160,13 +1776,13 @@
         <v>32131</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -3180,13 +1796,13 @@
         <v>32131</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -3200,13 +1816,13 @@
         <v>32131</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3220,13 +1836,13 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3240,13 +1856,13 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3260,13 +1876,13 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3280,13 +1896,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -3300,13 +1916,13 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3411,16 +2027,16 @@
         <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>88</v>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -8,37 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B51EDD-B4B6-4BB8-B8FD-AE2C8D15696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B3B61-AB92-4E9D-B2BE-04D5BA8BF565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ts" sheetId="6" r:id="rId2"/>
-    <sheet name="listuserid" sheetId="2" r:id="rId3"/>
-    <sheet name="daftar user" sheetId="3" r:id="rId4"/>
-    <sheet name="listulp" sheetId="4" r:id="rId5"/>
-    <sheet name="admin" sheetId="5" r:id="rId6"/>
+    <sheet name="ts" sheetId="2" r:id="rId2"/>
+    <sheet name="listuserid" sheetId="3" r:id="rId3"/>
+    <sheet name="daftar user" sheetId="4" r:id="rId4"/>
+    <sheet name="listulp" sheetId="5" r:id="rId5"/>
+    <sheet name="admin" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="222">
   <si>
     <t>NIP</t>
   </si>
@@ -61,24 +48,30 @@
     <t>Password Webmail</t>
   </si>
   <si>
+    <t>Akun</t>
+  </si>
+  <si>
+    <t>ACMT</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>92174036ZY</t>
+  </si>
+  <si>
+    <t>LUCKY ANDIKA NOVARIO</t>
+  </si>
+  <si>
+    <t>TL TEKNIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juli-2023</t>
+  </si>
+  <si>
     <t>AP2T</t>
   </si>
   <si>
-    <t>ACMT</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>92174036ZY</t>
-  </si>
-  <si>
-    <t>LUCKY ANDIKA NOVARIO</t>
-  </si>
-  <si>
-    <t>TL TEKNIK</t>
-  </si>
-  <si>
     <t>8208006F</t>
   </si>
   <si>
@@ -127,6 +120,9 @@
     <t>32131.vendor</t>
   </si>
   <si>
+    <t>relative357</t>
+  </si>
+  <si>
     <t>9615040FY</t>
   </si>
   <si>
@@ -151,7 +147,7 @@
     <t>SEGAL MANCINI SUROSO</t>
   </si>
   <si>
-    <t>Takalar-004</t>
+    <t>Juli-2023</t>
   </si>
   <si>
     <t>segal.suroso65</t>
@@ -274,9 +270,6 @@
     <t>FADLI HASBI</t>
   </si>
   <si>
-    <t>Mei-2023</t>
-  </si>
-  <si>
     <t>9010010F</t>
   </si>
   <si>
@@ -292,6 +285,30 @@
     <t>Mtg-0423</t>
   </si>
   <si>
+    <t>8910027F</t>
+  </si>
+  <si>
+    <t>SUAIB</t>
+  </si>
+  <si>
+    <t>P@ssw0rd03</t>
+  </si>
+  <si>
+    <t>95163710ZY</t>
+  </si>
+  <si>
+    <t>TL TE SAWITTO</t>
+  </si>
+  <si>
+    <t>94172066ZY</t>
+  </si>
+  <si>
+    <t>TL PAD SAWITTO</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -307,18 +324,192 @@
     <t>level</t>
   </si>
   <si>
+    <t>up3</t>
+  </si>
+  <si>
+    <t>upi</t>
+  </si>
+  <si>
     <t>Muhammad Luthfil</t>
   </si>
   <si>
     <t>owner</t>
   </si>
   <si>
+    <t>32AMS</t>
+  </si>
+  <si>
+    <t>Albert Paruntungan N</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
+    <t>Asdar</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
+    <t>fulan</t>
+  </si>
+  <si>
+    <t>ikram</t>
+  </si>
+  <si>
+    <t>081341188809</t>
+  </si>
+  <si>
+    <t>asri</t>
+  </si>
+  <si>
+    <t>085231714066</t>
+  </si>
+  <si>
+    <t>Hanum</t>
+  </si>
+  <si>
+    <t>082161880813</t>
+  </si>
+  <si>
+    <t>Jasry</t>
+  </si>
+  <si>
+    <t>081342410900</t>
+  </si>
+  <si>
+    <t>Tab sgm</t>
+  </si>
+  <si>
+    <t>081345675654</t>
+  </si>
+  <si>
+    <t>Nur Ika</t>
+  </si>
+  <si>
+    <t>082194276969</t>
+  </si>
+  <si>
+    <t>Pak Panji</t>
+  </si>
+  <si>
+    <t>08114032805</t>
+  </si>
+  <si>
+    <t>Alief</t>
+  </si>
+  <si>
+    <t>082195035466</t>
+  </si>
+  <si>
+    <t>Imam</t>
+  </si>
+  <si>
+    <t>082253715772</t>
+  </si>
+  <si>
+    <t>32APL</t>
+  </si>
+  <si>
+    <t>TE UBBK</t>
+  </si>
+  <si>
+    <t>085274843541</t>
+  </si>
+  <si>
+    <t>32ABB</t>
+  </si>
+  <si>
+    <t>Rezki</t>
+  </si>
+  <si>
+    <t>082293371125</t>
+  </si>
+  <si>
+    <t>082274813397</t>
+  </si>
+  <si>
+    <t>RAHCMAT HIDAYAT</t>
+  </si>
+  <si>
+    <t>085696900940</t>
+  </si>
+  <si>
+    <t>Azwar SGM</t>
+  </si>
+  <si>
+    <t>082346452934</t>
+  </si>
+  <si>
+    <t>Abdul Rais</t>
+  </si>
+  <si>
+    <t>082194509357</t>
+  </si>
+  <si>
+    <t>Nugroho</t>
+  </si>
+  <si>
+    <t>082190713939</t>
+  </si>
+  <si>
+    <t>Hasruddin</t>
+  </si>
+  <si>
+    <t>085399251096</t>
+  </si>
+  <si>
+    <t>Hajar</t>
+  </si>
+  <si>
+    <t>085394588309</t>
+  </si>
+  <si>
+    <t>bair</t>
+  </si>
+  <si>
+    <t>081241111435</t>
+  </si>
+  <si>
+    <t>Syarifuddin Tomoni</t>
+  </si>
+  <si>
+    <t>081242815101</t>
+  </si>
+  <si>
+    <t>Fahruddin KBJ</t>
+  </si>
+  <si>
+    <t>081343148404</t>
+  </si>
+  <si>
+    <t>Adis Bajeng</t>
+  </si>
+  <si>
+    <t>082265161451</t>
+  </si>
+  <si>
+    <t>Ime Bajeng</t>
+  </si>
+  <si>
+    <t>081242952584</t>
+  </si>
+  <si>
+    <t>Optel Tomoni</t>
+  </si>
+  <si>
+    <t>082331054416</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf</t>
+  </si>
+  <si>
+    <t>081139903991</t>
+  </si>
+  <si>
     <t>lucky</t>
   </si>
   <si>
@@ -391,6 +582,57 @@
     <t>082255222620</t>
   </si>
   <si>
+    <t>Ilmi bajeng</t>
+  </si>
+  <si>
+    <t>085396172227</t>
+  </si>
+  <si>
+    <t>muh irfan</t>
+  </si>
+  <si>
+    <t>081280012652</t>
+  </si>
+  <si>
+    <t>zul</t>
+  </si>
+  <si>
+    <t>0853970607804</t>
+  </si>
+  <si>
+    <t>nugi</t>
+  </si>
+  <si>
+    <t>082350565303</t>
+  </si>
+  <si>
+    <t>apkt mtg</t>
+  </si>
+  <si>
+    <t>082187035790</t>
+  </si>
+  <si>
+    <t>ipul mtg</t>
+  </si>
+  <si>
+    <t>085298764268</t>
+  </si>
+  <si>
+    <t>Theresno</t>
+  </si>
+  <si>
+    <t>081288769406</t>
+  </si>
+  <si>
+    <t>32APG</t>
+  </si>
+  <si>
+    <t>Ahmad Nurdin Islam</t>
+  </si>
+  <si>
+    <t>085851387875</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
@@ -449,27 +691,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Juli-2023</t>
-  </si>
-  <si>
-    <t>relative357</t>
-  </si>
-  <si>
-    <t>Akun</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>up3</t>
-  </si>
-  <si>
-    <t>32AMS</t>
-  </si>
-  <si>
-    <t>upi</t>
   </si>
 </sst>
 </file>
@@ -840,16 +1061,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -880,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -893,7 +1114,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>32131</v>
       </c>
       <c r="C2" t="s">
@@ -903,127 +1124,127 @@
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
         <v>32111</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4">
         <v>44927</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
         <v>32111</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
         <v>32111</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
         <v>32131</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
         <v>32131</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
         <v>32131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1031,394 +1252,454 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5">
         <v>32111</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5">
         <v>32151</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5">
         <v>32151</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
         <v>32640</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5">
         <v>32161</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
         <v>32161</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5">
         <v>32161</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5">
         <v>32620</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5">
         <v>32620</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5">
         <v>32620</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5">
         <v>32650</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5">
         <v>32650</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5">
         <v>32650</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5">
         <v>32141</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5">
         <v>32141</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5">
         <v>32141</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25">
+        <v>79</v>
+      </c>
+      <c r="B25" s="5">
         <v>32121</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5">
         <v>32121</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27">
+        <v>83</v>
+      </c>
+      <c r="B27" s="5">
         <v>32121</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5">
+        <v>32410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5">
+        <v>32410</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5">
+        <v>32410</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1430,6 +1711,7 @@
     <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1437,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9778E87-E21B-44D4-B8D2-20E22F42CCAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1457,11 +1739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,28 +1756,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1509,19 +1791,1261 @@
         <v>32131</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>81321863455</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5345386385</v>
+      </c>
+      <c r="C3">
+        <v>32100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>85311497918</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>745682086</v>
+      </c>
+      <c r="C4">
+        <v>32131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>987123</v>
+      </c>
+      <c r="C5">
+        <v>32189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1798642805</v>
+      </c>
+      <c r="C6">
+        <v>32151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5945838748</v>
+      </c>
+      <c r="C7">
+        <v>32111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>557351629</v>
+      </c>
+      <c r="C8">
+        <v>32131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>71322245</v>
+      </c>
+      <c r="C9">
+        <v>32131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5360070360</v>
+      </c>
+      <c r="C10">
+        <v>32131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1580836071</v>
+      </c>
+      <c r="C11">
+        <v>32131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>715245598</v>
+      </c>
+      <c r="C12">
+        <v>32161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1493768521</v>
+      </c>
+      <c r="C13">
+        <v>32161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2027685565</v>
+      </c>
+      <c r="C14">
+        <v>32640</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5650448412</v>
+      </c>
+      <c r="C15">
+        <v>32810</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>650854863</v>
+      </c>
+      <c r="C16">
+        <v>32810</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>344431915</v>
+      </c>
+      <c r="C17">
+        <v>32151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2067796448</v>
+      </c>
+      <c r="C18">
+        <v>32151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1667444834</v>
+      </c>
+      <c r="C19">
+        <v>32131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5604822623</v>
+      </c>
+      <c r="C20">
+        <v>32131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5147209695</v>
+      </c>
+      <c r="C21">
+        <v>32131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="H2">
-        <v>32</v>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>982788680</v>
+      </c>
+      <c r="C22">
+        <v>32810</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5300064943</v>
+      </c>
+      <c r="C23">
+        <v>32131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5382040930</v>
+      </c>
+      <c r="C24">
+        <v>32131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>776823206</v>
+      </c>
+      <c r="C25">
+        <v>32650</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1310276544</v>
+      </c>
+      <c r="C26">
+        <v>32141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>926044995</v>
+      </c>
+      <c r="C27">
+        <v>32141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5139061026</v>
+      </c>
+      <c r="C28">
+        <v>32141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6009006687</v>
+      </c>
+      <c r="C29">
+        <v>32650</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>557226088</v>
+      </c>
+      <c r="C30">
+        <v>32650</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1236555765</v>
+      </c>
+      <c r="C31">
+        <v>32131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>926888461</v>
+      </c>
+      <c r="C32">
+        <v>32131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1283390324</v>
+      </c>
+      <c r="C33">
+        <v>32131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1028196304</v>
+      </c>
+      <c r="C34">
+        <v>32131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1418659301</v>
+      </c>
+      <c r="C35">
+        <v>32131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1994514098</v>
+      </c>
+      <c r="C36">
+        <v>32131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2026367676</v>
+      </c>
+      <c r="C37">
+        <v>32131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5237771279</v>
+      </c>
+      <c r="C38">
+        <v>32131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1742325204</v>
+      </c>
+      <c r="C39">
+        <v>32131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5224528578</v>
+      </c>
+      <c r="C40">
+        <v>32131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>451836660</v>
+      </c>
+      <c r="C41">
+        <v>32131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5718252642</v>
+      </c>
+      <c r="C42">
+        <v>32131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5927848808</v>
+      </c>
+      <c r="C43">
+        <v>32141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1633651490</v>
+      </c>
+      <c r="C44">
+        <v>32121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1409136422</v>
+      </c>
+      <c r="C45">
+        <v>32121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5987616441</v>
+      </c>
+      <c r="C46">
+        <v>32121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5583764562</v>
+      </c>
+      <c r="C47">
+        <v>32121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5665830353</v>
+      </c>
+      <c r="C48">
+        <v>32121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5701325301</v>
+      </c>
+      <c r="C49">
+        <v>32410</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5518058205</v>
+      </c>
+      <c r="C50">
+        <v>32410</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +3054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1547,10 +3071,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1558,47 +3082,47 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5">
         <v>1157932876</v>
@@ -1607,33 +3131,33 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5">
         <v>1311477493</v>
@@ -1642,13 +3166,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1659,13 +3183,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1676,13 +3200,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1696,13 +3220,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1716,13 +3240,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1736,13 +3260,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1756,13 +3280,13 @@
         <v>32131</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1776,13 +3300,13 @@
         <v>32131</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1796,13 +3320,13 @@
         <v>32131</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1816,13 +3340,13 @@
         <v>32131</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1836,13 +3360,13 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1856,13 +3380,13 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1876,13 +3400,13 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1896,13 +3420,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1916,18 +3440,18 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1935,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,10 +3473,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2009,7 +3533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2024,22 +3548,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2050,10 +3574,10 @@
         <v>1029804860</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CCCDF-192C-4B0C-84DC-4E94CD3D33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08CF85-525D-4702-801D-2B26600A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="256">
   <si>
     <t>NIP</t>
   </si>
@@ -66,7 +66,7 @@
     <t>TL TEKNIK</t>
   </si>
   <si>
-    <t xml:space="preserve"> Juli-2023</t>
+    <t>September@2023</t>
   </si>
   <si>
     <t>AP2T</t>
@@ -270,6 +270,9 @@
     <t>FADLI HASBI</t>
   </si>
   <si>
+    <t>Agustus-2023</t>
+  </si>
+  <si>
     <t>9010010F</t>
   </si>
   <si>
@@ -696,6 +699,42 @@
     <t>085342365642</t>
   </si>
   <si>
+    <t>Isra PT BIG</t>
+  </si>
+  <si>
+    <t>081347378885</t>
+  </si>
+  <si>
+    <t>Arfandi</t>
+  </si>
+  <si>
+    <t>085298321055</t>
+  </si>
+  <si>
+    <t>Darwis PT BIG</t>
+  </si>
+  <si>
+    <t>081340879014</t>
+  </si>
+  <si>
+    <t>Syamsul</t>
+  </si>
+  <si>
+    <t>PKL poltek</t>
+  </si>
+  <si>
+    <t>085796567513|user</t>
+  </si>
+  <si>
+    <t>Sulaiman</t>
+  </si>
+  <si>
+    <t>PKL Poltek</t>
+  </si>
+  <si>
+    <t>081244644616|user</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
@@ -754,9 +793,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>Agustus-2023</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1670,13 +1706,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="5">
         <v>32121</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1690,19 +1726,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="5">
         <v>32121</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1710,19 +1746,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5">
         <v>32410</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1730,13 +1766,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="5">
         <v>32410</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1750,13 +1786,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="5">
         <v>32410</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1770,7 +1806,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Mei@2023" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
@@ -1796,7 +1832,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1806,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,28 +1858,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1857,16 +1893,16 @@
         <v>32131</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>81321863455</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -1883,16 +1919,16 @@
         <v>32100</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>85311497918</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -1909,16 +1945,16 @@
         <v>32131</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -1935,16 +1971,16 @@
         <v>32189</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -1961,16 +1997,16 @@
         <v>32151</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -1987,16 +2023,16 @@
         <v>32111</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>32</v>
@@ -2013,16 +2049,16 @@
         <v>32131</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -2039,16 +2075,16 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -2065,16 +2101,16 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -2091,16 +2127,16 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11">
         <v>32</v>
@@ -2117,16 +2153,16 @@
         <v>32161</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>32</v>
@@ -2143,16 +2179,16 @@
         <v>32161</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>32</v>
@@ -2169,16 +2205,16 @@
         <v>32640</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14">
         <v>32</v>
@@ -2195,16 +2231,16 @@
         <v>32810</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H15">
         <v>32</v>
@@ -2221,16 +2257,16 @@
         <v>32810</v>
       </c>
       <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
         <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>131</v>
       </c>
       <c r="H16">
         <v>32</v>
@@ -2250,13 +2286,13 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17">
         <v>32</v>
@@ -2273,16 +2309,16 @@
         <v>32151</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>32</v>
@@ -2299,16 +2335,16 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -2325,16 +2361,16 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>32</v>
@@ -2351,16 +2387,16 @@
         <v>32131</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21">
         <v>32</v>
@@ -2377,16 +2413,16 @@
         <v>32810</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22">
         <v>32</v>
@@ -2403,16 +2439,16 @@
         <v>32131</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <v>32</v>
@@ -2429,16 +2465,16 @@
         <v>32131</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24">
         <v>32</v>
@@ -2455,16 +2491,16 @@
         <v>32650</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>32</v>
@@ -2481,16 +2517,16 @@
         <v>32141</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26">
         <v>32</v>
@@ -2507,16 +2543,16 @@
         <v>32141</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>32</v>
@@ -2533,16 +2569,16 @@
         <v>32141</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28">
         <v>32</v>
@@ -2559,16 +2595,16 @@
         <v>32650</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29">
         <v>32</v>
@@ -2585,16 +2621,16 @@
         <v>32650</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30">
         <v>32</v>
@@ -2611,16 +2647,16 @@
         <v>32131</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H31">
         <v>32</v>
@@ -2637,16 +2673,16 @@
         <v>32131</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -2663,16 +2699,16 @@
         <v>32131</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2689,16 +2725,16 @@
         <v>32131</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -2715,16 +2751,16 @@
         <v>32131</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -2741,16 +2777,16 @@
         <v>32131</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H36">
         <v>32</v>
@@ -2767,16 +2803,16 @@
         <v>32131</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H37">
         <v>32</v>
@@ -2793,16 +2829,16 @@
         <v>32131</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H38">
         <v>32</v>
@@ -2819,16 +2855,16 @@
         <v>32131</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H39">
         <v>32</v>
@@ -2845,16 +2881,16 @@
         <v>32131</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H40">
         <v>32</v>
@@ -2871,16 +2907,16 @@
         <v>32131</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41">
         <v>32</v>
@@ -2897,16 +2933,16 @@
         <v>32131</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H42">
         <v>32</v>
@@ -2923,16 +2959,16 @@
         <v>32141</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H43">
         <v>32</v>
@@ -2949,16 +2985,16 @@
         <v>32121</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>32</v>
@@ -2975,16 +3011,16 @@
         <v>32121</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H45">
         <v>32</v>
@@ -3001,16 +3037,16 @@
         <v>32121</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H46">
         <v>32</v>
@@ -3027,16 +3063,16 @@
         <v>32121</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H47">
         <v>32</v>
@@ -3053,16 +3089,16 @@
         <v>32121</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H48">
         <v>32</v>
@@ -3079,16 +3115,16 @@
         <v>32410</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H49">
         <v>32</v>
@@ -3105,13 +3141,13 @@
         <v>32410</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3125,13 +3161,13 @@
         <v>32999</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3145,13 +3181,13 @@
         <v>32121</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3165,13 +3201,13 @@
         <v>32999</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3185,13 +3221,13 @@
         <v>32111</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3205,13 +3241,13 @@
         <v>32131</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3225,13 +3261,13 @@
         <v>32131</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3245,13 +3281,13 @@
         <v>32111</v>
       </c>
       <c r="D57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3265,13 +3301,13 @@
         <v>32111</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3285,13 +3321,113 @@
         <v>32100</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1302071261</v>
+      </c>
+      <c r="C60">
+        <v>32999</v>
+      </c>
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6668872645</v>
+      </c>
+      <c r="C61">
+        <v>32111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2128133948</v>
+      </c>
+      <c r="C62">
+        <v>32999</v>
+      </c>
+      <c r="D62" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1594278786</v>
+      </c>
+      <c r="C63">
+        <v>32999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6291110476</v>
+      </c>
+      <c r="C64">
+        <v>32999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3317,10 +3453,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -3328,18 +3464,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -3353,19 +3489,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3377,24 +3513,24 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -3412,13 +3548,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -3429,13 +3565,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -3446,13 +3582,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -3466,13 +3602,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -3486,13 +3622,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -3506,13 +3642,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -3526,13 +3662,13 @@
         <v>32131</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -3546,13 +3682,13 @@
         <v>32131</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -3566,13 +3702,13 @@
         <v>32131</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -3586,13 +3722,13 @@
         <v>32131</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3606,13 +3742,13 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3626,13 +3762,13 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3646,13 +3782,13 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3666,13 +3802,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -3686,13 +3822,13 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3719,10 +3855,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3794,22 +3930,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3820,10 +3956,10 @@
         <v>1029804860</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08CF85-525D-4702-801D-2B26600A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2734C1A9-84D3-4BBB-BEFD-1C86E84BD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="289">
   <si>
     <t>NIP</t>
   </si>
@@ -66,7 +66,7 @@
     <t>TL TEKNIK</t>
   </si>
   <si>
-    <t>September@2023</t>
+    <t>Oktober-2023</t>
   </si>
   <si>
     <t>AP2T</t>
@@ -78,7 +78,7 @@
     <t>DOMINGGUS PALALLO</t>
   </si>
   <si>
-    <t>Des@2022</t>
+    <t>Nanang-11</t>
   </si>
   <si>
     <t>dominggus.palallo</t>
@@ -147,9 +147,6 @@
     <t>SEGAL MANCINI SUROSO</t>
   </si>
   <si>
-    <t>Juli-2023</t>
-  </si>
-  <si>
     <t>segal.suroso65</t>
   </si>
   <si>
@@ -168,21 +165,15 @@
     <t>Teknik@123455</t>
   </si>
   <si>
-    <t>93171071ZY</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIZQAN WINDRATAMA</t>
-  </si>
-  <si>
-    <t>Malino+08</t>
-  </si>
-  <si>
     <t>8808075F</t>
   </si>
   <si>
     <t>DIAN PANJI WINARDIN</t>
   </si>
   <si>
+    <t>Malino+11</t>
+  </si>
+  <si>
     <t>9218613ZY</t>
   </si>
   <si>
@@ -246,7 +237,7 @@
     <t>RAHMATULLAH DAHLAN</t>
   </si>
   <si>
-    <t>Energi-30</t>
+    <t>Energi-31</t>
   </si>
   <si>
     <t>9517729ZY</t>
@@ -270,9 +261,6 @@
     <t>FADLI HASBI</t>
   </si>
   <si>
-    <t>Agustus-2023</t>
-  </si>
-  <si>
     <t>9010010F</t>
   </si>
   <si>
@@ -309,6 +297,45 @@
     <t>TL PAD SAWITTO</t>
   </si>
   <si>
+    <t>93163732ZY</t>
+  </si>
+  <si>
+    <t>Rizka Prirahandika</t>
+  </si>
+  <si>
+    <t>Daya@011</t>
+  </si>
+  <si>
+    <t>8915323ZY</t>
+  </si>
+  <si>
+    <t>AMALIYAH WAHYUNI</t>
+  </si>
+  <si>
+    <t>9115474ZY</t>
+  </si>
+  <si>
+    <t>ANDI MUH ASYIK</t>
+  </si>
+  <si>
+    <t>9318647ZY</t>
+  </si>
+  <si>
+    <t>IBNU RUSYDI</t>
+  </si>
+  <si>
+    <t>9520542ZY</t>
+  </si>
+  <si>
+    <t>HANIFAN</t>
+  </si>
+  <si>
+    <t>9216905ZY</t>
+  </si>
+  <si>
+    <t>TL PAD TANRU TEDONG</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -333,79 +360,313 @@
     <t>upi</t>
   </si>
   <si>
+    <t>Calu P2TL</t>
+  </si>
+  <si>
+    <t>085342365642</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>asri</t>
+  </si>
+  <si>
+    <t>085231714066</t>
+  </si>
+  <si>
+    <t>32AMS</t>
+  </si>
+  <si>
+    <t>masdiana</t>
+  </si>
+  <si>
+    <t>08539989273</t>
+  </si>
+  <si>
+    <t>Dindera UID</t>
+  </si>
+  <si>
+    <t>08114135454</t>
+  </si>
+  <si>
+    <t>Aziz Haring</t>
+  </si>
+  <si>
+    <t>0811427481</t>
+  </si>
+  <si>
+    <t>Arfandi</t>
+  </si>
+  <si>
+    <t>085298321055</t>
+  </si>
+  <si>
+    <t>muh irfan</t>
+  </si>
+  <si>
+    <t>081280012652</t>
+  </si>
+  <si>
+    <t>zul</t>
+  </si>
+  <si>
+    <t>0853970607804</t>
+  </si>
+  <si>
+    <t>nugi</t>
+  </si>
+  <si>
+    <t>082350565303</t>
+  </si>
+  <si>
+    <t>apkt mtg</t>
+  </si>
+  <si>
+    <t>082187035790</t>
+  </si>
+  <si>
+    <t>ipul mtg</t>
+  </si>
+  <si>
+    <t>085298764268</t>
+  </si>
+  <si>
+    <t>Ikhsan Sideng</t>
+  </si>
+  <si>
+    <t>081355631040</t>
+  </si>
+  <si>
+    <t>Kord Har MTG</t>
+  </si>
+  <si>
+    <t>081342904101</t>
+  </si>
+  <si>
     <t>Muhammad Luthfil</t>
   </si>
   <si>
     <t>owner</t>
   </si>
   <si>
-    <t>32AMS</t>
-  </si>
-  <si>
-    <t>Albert Paruntungan N</t>
+    <t>Asdar</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>Hanum</t>
+  </si>
+  <si>
+    <t>082161880813</t>
+  </si>
+  <si>
+    <t>Jasry</t>
+  </si>
+  <si>
+    <t>081342410900</t>
+  </si>
+  <si>
+    <t>Tab sgm</t>
+  </si>
+  <si>
+    <t>081345675654</t>
+  </si>
+  <si>
+    <t>Nur Ika</t>
+  </si>
+  <si>
+    <t>082194276969</t>
+  </si>
+  <si>
+    <t>Azwar SGM</t>
+  </si>
+  <si>
+    <t>082346452934</t>
+  </si>
+  <si>
+    <t>Abdul Rais</t>
+  </si>
+  <si>
+    <t>082194509357</t>
+  </si>
+  <si>
+    <t>Nugroho</t>
+  </si>
+  <si>
+    <t>082190713939</t>
+  </si>
+  <si>
+    <t>Hajar</t>
+  </si>
+  <si>
+    <t>085394588309</t>
+  </si>
+  <si>
+    <t>bair</t>
+  </si>
+  <si>
+    <t>081241111435</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>081321</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Asdar</t>
-  </si>
-  <si>
-    <t>0813</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>fikar</t>
+  </si>
+  <si>
+    <t>081254</t>
+  </si>
+  <si>
+    <t>Ihksan Rahman</t>
+  </si>
+  <si>
+    <t>082192511997</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>085255679990</t>
+  </si>
+  <si>
+    <t>wahyudin</t>
+  </si>
+  <si>
+    <t>082398215904</t>
+  </si>
+  <si>
+    <t>reza dwi</t>
+  </si>
+  <si>
+    <t>082177362263</t>
+  </si>
+  <si>
+    <t>Amry</t>
+  </si>
+  <si>
+    <t>081352353300</t>
+  </si>
+  <si>
+    <t>command center</t>
+  </si>
+  <si>
+    <t>081245492736</t>
+  </si>
+  <si>
+    <t>Try azhari</t>
+  </si>
+  <si>
+    <t>085245775418</t>
+  </si>
+  <si>
+    <t>sofyan sgm</t>
+  </si>
+  <si>
+    <t>085345407759</t>
+  </si>
+  <si>
+    <t>Desy</t>
+  </si>
+  <si>
+    <t>081340894560</t>
+  </si>
+  <si>
+    <t>Rais Syihab</t>
+  </si>
+  <si>
+    <t>082255222620</t>
+  </si>
+  <si>
+    <t>agus harmet</t>
+  </si>
+  <si>
+    <t>08218921878</t>
+  </si>
+  <si>
+    <t>Add|6637022351|32131|agus harmet|082189218785</t>
+  </si>
+  <si>
+    <t>Harry Hirwan</t>
+  </si>
+  <si>
+    <t>085255746513</t>
+  </si>
+  <si>
+    <t>Fahruddin KBJ</t>
+  </si>
+  <si>
+    <t>081343148404</t>
+  </si>
+  <si>
+    <t>Adis Bajeng</t>
+  </si>
+  <si>
+    <t>082265161451</t>
+  </si>
+  <si>
+    <t>Ime Bajeng</t>
+  </si>
+  <si>
+    <t>081242952584</t>
+  </si>
+  <si>
+    <t>Ilmi bajeng</t>
+  </si>
+  <si>
+    <t>085396172227</t>
+  </si>
+  <si>
+    <t>ikram</t>
+  </si>
+  <si>
+    <t>081341188809</t>
+  </si>
+  <si>
+    <t>082274813397</t>
+  </si>
+  <si>
+    <t>RAHCMAT HIDAYAT</t>
+  </si>
+  <si>
+    <t>085696900940</t>
+  </si>
+  <si>
+    <t>Pak Panji</t>
+  </si>
+  <si>
+    <t>08114032805</t>
+  </si>
+  <si>
+    <t>Alief</t>
+  </si>
+  <si>
+    <t>082195035466</t>
   </si>
   <si>
     <t>fulan</t>
   </si>
   <si>
-    <t>ikram</t>
-  </si>
-  <si>
-    <t>081341188809</t>
-  </si>
-  <si>
-    <t>asri</t>
-  </si>
-  <si>
-    <t>085231714066</t>
-  </si>
-  <si>
-    <t>Hanum</t>
-  </si>
-  <si>
-    <t>082161880813</t>
-  </si>
-  <si>
-    <t>Jasry</t>
-  </si>
-  <si>
-    <t>081342410900</t>
-  </si>
-  <si>
-    <t>Tab sgm</t>
-  </si>
-  <si>
-    <t>081345675654</t>
-  </si>
-  <si>
-    <t>Nur Ika</t>
-  </si>
-  <si>
-    <t>082194276969</t>
-  </si>
-  <si>
-    <t>Pak Panji</t>
-  </si>
-  <si>
-    <t>08114032805</t>
-  </si>
-  <si>
-    <t>Alief</t>
-  </si>
-  <si>
-    <t>082195035466</t>
+    <t>Theresno</t>
+  </si>
+  <si>
+    <t>081288769406</t>
+  </si>
+  <si>
+    <t>32APG</t>
+  </si>
+  <si>
+    <t>Ahmad Nurdin Islam</t>
+  </si>
+  <si>
+    <t>085851387875</t>
   </si>
   <si>
     <t>Imam</t>
@@ -417,6 +678,24 @@
     <t>32APL</t>
   </si>
   <si>
+    <t>Syarifuddin Tomoni</t>
+  </si>
+  <si>
+    <t>081242815101</t>
+  </si>
+  <si>
+    <t>Optel Tomoni</t>
+  </si>
+  <si>
+    <t>082331054416</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf</t>
+  </si>
+  <si>
+    <t>081139903991</t>
+  </si>
+  <si>
     <t>TE UBBK</t>
   </si>
   <si>
@@ -432,222 +711,18 @@
     <t>082293371125</t>
   </si>
   <si>
-    <t>082274813397</t>
-  </si>
-  <si>
-    <t>RAHCMAT HIDAYAT</t>
-  </si>
-  <si>
-    <t>085696900940</t>
-  </si>
-  <si>
-    <t>Azwar SGM</t>
-  </si>
-  <si>
-    <t>082346452934</t>
-  </si>
-  <si>
-    <t>Abdul Rais</t>
-  </si>
-  <si>
-    <t>082194509357</t>
-  </si>
-  <si>
-    <t>Nugroho</t>
-  </si>
-  <si>
-    <t>082190713939</t>
-  </si>
-  <si>
     <t>Hasruddin</t>
   </si>
   <si>
     <t>085399251096</t>
   </si>
   <si>
-    <t>Hajar</t>
-  </si>
-  <si>
-    <t>085394588309</t>
-  </si>
-  <si>
-    <t>bair</t>
-  </si>
-  <si>
-    <t>081241111435</t>
-  </si>
-  <si>
-    <t>Syarifuddin Tomoni</t>
-  </si>
-  <si>
-    <t>081242815101</t>
-  </si>
-  <si>
-    <t>Fahruddin KBJ</t>
-  </si>
-  <si>
-    <t>081343148404</t>
-  </si>
-  <si>
-    <t>Adis Bajeng</t>
-  </si>
-  <si>
-    <t>082265161451</t>
-  </si>
-  <si>
-    <t>Ime Bajeng</t>
-  </si>
-  <si>
-    <t>081242952584</t>
-  </si>
-  <si>
-    <t>Optel Tomoni</t>
-  </si>
-  <si>
-    <t>082331054416</t>
-  </si>
-  <si>
-    <t>Muhammad Yusuf</t>
-  </si>
-  <si>
-    <t>081139903991</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>081321</t>
-  </si>
-  <si>
-    <t>fikar</t>
-  </si>
-  <si>
-    <t>081254</t>
-  </si>
-  <si>
-    <t>Ihksan Rahman</t>
-  </si>
-  <si>
-    <t>082192511997</t>
-  </si>
-  <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>085255679990</t>
-  </si>
-  <si>
-    <t>wahyudin</t>
-  </si>
-  <si>
-    <t>082398215904</t>
-  </si>
-  <si>
-    <t>reza dwi</t>
-  </si>
-  <si>
-    <t>082177362263</t>
-  </si>
-  <si>
-    <t>Amry</t>
-  </si>
-  <si>
-    <t>081352353300</t>
-  </si>
-  <si>
-    <t>command center</t>
-  </si>
-  <si>
-    <t>081245492736</t>
-  </si>
-  <si>
-    <t>Try azhari</t>
-  </si>
-  <si>
-    <t>085245775418</t>
-  </si>
-  <si>
-    <t>sofyan sgm</t>
-  </si>
-  <si>
-    <t>085345407759</t>
-  </si>
-  <si>
-    <t>Desy</t>
-  </si>
-  <si>
-    <t>081340894560</t>
-  </si>
-  <si>
-    <t>Rais Syihab</t>
-  </si>
-  <si>
-    <t>082255222620</t>
-  </si>
-  <si>
-    <t>Ilmi bajeng</t>
-  </si>
-  <si>
-    <t>085396172227</t>
-  </si>
-  <si>
-    <t>muh irfan</t>
-  </si>
-  <si>
-    <t>081280012652</t>
-  </si>
-  <si>
-    <t>zul</t>
-  </si>
-  <si>
-    <t>0853970607804</t>
-  </si>
-  <si>
-    <t>nugi</t>
-  </si>
-  <si>
-    <t>082350565303</t>
-  </si>
-  <si>
-    <t>apkt mtg</t>
-  </si>
-  <si>
-    <t>082187035790</t>
-  </si>
-  <si>
-    <t>ipul mtg</t>
-  </si>
-  <si>
-    <t>085298764268</t>
-  </si>
-  <si>
-    <t>Theresno</t>
-  </si>
-  <si>
-    <t>081288769406</t>
-  </si>
-  <si>
-    <t>32APG</t>
-  </si>
-  <si>
-    <t>Ahmad Nurdin Islam</t>
-  </si>
-  <si>
-    <t>085851387875</t>
-  </si>
-  <si>
     <t>Firman Empo</t>
   </si>
   <si>
     <t>082244888367</t>
   </si>
   <si>
-    <t>Ikhsan Sideng</t>
-  </si>
-  <si>
-    <t>081355631040</t>
-  </si>
-  <si>
     <t>fidel</t>
   </si>
   <si>
@@ -657,60 +732,12 @@
     <t>Add|1340216138|32999|fidel|085396630849</t>
   </si>
   <si>
-    <t>masdiana</t>
-  </si>
-  <si>
-    <t>08539989273</t>
-  </si>
-  <si>
-    <t>Add|6473262382|32111|masdiana|085399892739</t>
-  </si>
-  <si>
-    <t>agus harmet</t>
-  </si>
-  <si>
-    <t>08218921878</t>
-  </si>
-  <si>
-    <t>Add|6637022351|32131|agus harmet|082189218785</t>
-  </si>
-  <si>
-    <t>Harry Hirwan</t>
-  </si>
-  <si>
-    <t>085255746513</t>
-  </si>
-  <si>
-    <t>Dindera UID</t>
-  </si>
-  <si>
-    <t>08114135454</t>
-  </si>
-  <si>
-    <t>0811427481</t>
-  </si>
-  <si>
-    <t>Aziz Haring</t>
-  </si>
-  <si>
-    <t>Calu P2TL</t>
-  </si>
-  <si>
-    <t>085342365642</t>
-  </si>
-  <si>
     <t>Isra PT BIG</t>
   </si>
   <si>
     <t>081347378885</t>
   </si>
   <si>
-    <t>Arfandi</t>
-  </si>
-  <si>
-    <t>085298321055</t>
-  </si>
-  <si>
     <t>Darwis PT BIG</t>
   </si>
   <si>
@@ -735,6 +762,72 @@
     <t>081244644616|user</t>
   </si>
   <si>
+    <t>Iskandar</t>
+  </si>
+  <si>
+    <t>081241621170</t>
+  </si>
+  <si>
+    <t>Yefta</t>
+  </si>
+  <si>
+    <t>085325058475</t>
+  </si>
+  <si>
+    <t>andis daya</t>
+  </si>
+  <si>
+    <t>085219222290</t>
+  </si>
+  <si>
+    <t>32AMU</t>
+  </si>
+  <si>
+    <t>Khairul p2tl mu</t>
+  </si>
+  <si>
+    <t>085242930855</t>
+  </si>
+  <si>
+    <t>sulfayanti pt big</t>
+  </si>
+  <si>
+    <t>085398699699</t>
+  </si>
+  <si>
+    <t>ian ojt</t>
+  </si>
+  <si>
+    <t>082176974704</t>
+  </si>
+  <si>
+    <t>Dewa Cahyo</t>
+  </si>
+  <si>
+    <t>081355951617</t>
+  </si>
+  <si>
+    <t>Dewa cahyo</t>
+  </si>
+  <si>
+    <t>ifan te</t>
+  </si>
+  <si>
+    <t>087886223991</t>
+  </si>
+  <si>
+    <t>MULP Tanru tedong pak ardi</t>
+  </si>
+  <si>
+    <t>085299032460</t>
+  </si>
+  <si>
+    <t>spv teknik ibnu rasyid</t>
+  </si>
+  <si>
+    <t>081244665665</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
@@ -793,6 +886,12 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>Nov-2023</t>
+  </si>
+  <si>
+    <t>Yanman@05</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,10 +1491,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="4">
         <v>44927</v>
@@ -1406,13 +1505,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5">
         <v>32151</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1426,19 +1525,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5">
         <v>32640</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1446,19 +1545,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5">
         <v>32161</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1466,13 +1565,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5">
         <v>32161</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1486,13 +1585,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5">
         <v>32161</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1506,19 +1605,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <v>32620</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1526,19 +1625,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5">
         <v>32620</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1546,19 +1645,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5">
         <v>32620</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1566,19 +1665,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5">
         <v>32650</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1586,19 +1685,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5">
         <v>32650</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1606,13 +1705,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5">
         <v>32650</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1626,19 +1725,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5">
         <v>32141</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1646,19 +1745,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="5">
         <v>32141</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1666,13 +1765,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5">
         <v>32141</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1686,19 +1785,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5">
         <v>32121</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1706,13 +1805,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="5">
         <v>32121</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1726,19 +1825,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5">
         <v>32121</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1746,19 +1845,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5">
         <v>32410</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1766,13 +1865,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5">
         <v>32410</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1786,13 +1885,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B30" s="5">
         <v>32410</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1804,16 +1903,138 @@
         <v>14</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="5">
+        <v>32020</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="5">
+        <v>32020</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="5">
+        <v>32020</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="5">
+        <v>32540</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="5">
+        <v>32540</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5">
+        <v>32540</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="September@2023" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="Des@2022" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1832,7 +2053,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1842,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,32 +2075,33 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1887,25 +2109,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1029804860</v>
-      </c>
-      <c r="C2" s="5">
-        <v>32131</v>
+        <v>1186041510</v>
+      </c>
+      <c r="C2">
+        <v>32100</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2">
-        <v>81321863455</v>
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1913,22 +2129,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5345386385</v>
+        <v>5945838748</v>
       </c>
       <c r="C3">
-        <v>32100</v>
+        <v>32111</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3">
-        <v>85311497918</v>
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -1939,25 +2155,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>745682086</v>
+        <v>6473262382</v>
       </c>
       <c r="C4">
-        <v>32131</v>
+        <v>32111</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1965,25 +2175,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>987123</v>
+        <v>5898157449</v>
       </c>
       <c r="C5">
-        <v>32189</v>
+        <v>32111</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1991,25 +2195,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1798642805</v>
+        <v>6542293321</v>
       </c>
       <c r="C6">
-        <v>32151</v>
+        <v>32111</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
+        <v>121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2017,25 +2215,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5945838748</v>
+        <v>6668872645</v>
       </c>
       <c r="C7">
         <v>32111</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2043,22 +2235,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>557351629</v>
+        <v>1633651490</v>
       </c>
       <c r="C8">
-        <v>32131</v>
+        <v>32121</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -2069,22 +2261,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>71322245</v>
+        <v>1409136422</v>
       </c>
       <c r="C9">
-        <v>32131</v>
+        <v>32121</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -2095,22 +2287,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5360070360</v>
+        <v>5987616441</v>
       </c>
       <c r="C10">
-        <v>32131</v>
+        <v>32121</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -2121,22 +2313,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1580836071</v>
+        <v>5583764562</v>
       </c>
       <c r="C11">
-        <v>32131</v>
+        <v>32121</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>32</v>
@@ -2147,22 +2339,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>715245598</v>
+        <v>5665830353</v>
       </c>
       <c r="C12">
-        <v>32161</v>
+        <v>32121</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H12">
         <v>32</v>
@@ -2173,25 +2365,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1493768521</v>
+        <v>1413720360</v>
       </c>
       <c r="C13">
-        <v>32161</v>
+        <v>32121</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2199,25 +2385,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2027685565</v>
+        <v>6518556956</v>
       </c>
       <c r="C14">
-        <v>32640</v>
+        <v>32121</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2225,22 +2405,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5650448412</v>
-      </c>
-      <c r="C15">
-        <v>32810</v>
+        <v>1029804860</v>
+      </c>
+      <c r="C15" s="5">
+        <v>32111</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="E15">
+        <v>81321863455</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>32</v>
@@ -2251,22 +2431,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>650854863</v>
+        <v>745682086</v>
       </c>
       <c r="C16">
-        <v>32810</v>
+        <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>32</v>
@@ -2277,22 +2457,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>344431915</v>
+        <v>557351629</v>
       </c>
       <c r="C17">
-        <v>32151</v>
+        <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H17">
         <v>32</v>
@@ -2303,22 +2483,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2067796448</v>
+        <v>71322245</v>
       </c>
       <c r="C18">
-        <v>32151</v>
+        <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H18">
         <v>32</v>
@@ -2329,22 +2509,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1667444834</v>
+        <v>5360070360</v>
       </c>
       <c r="C19">
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -2355,22 +2535,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5604822623</v>
+        <v>1580836071</v>
       </c>
       <c r="C20">
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H20">
         <v>32</v>
@@ -2381,22 +2561,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5147209695</v>
+        <v>1667444834</v>
       </c>
       <c r="C21">
         <v>32131</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H21">
         <v>32</v>
@@ -2407,22 +2587,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>982788680</v>
+        <v>5604822623</v>
       </c>
       <c r="C22">
-        <v>32810</v>
+        <v>32131</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>32</v>
@@ -2433,22 +2613,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5300064943</v>
+        <v>5147209695</v>
       </c>
       <c r="C23">
         <v>32131</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H23">
         <v>32</v>
@@ -2459,22 +2639,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5382040930</v>
+        <v>5300064943</v>
       </c>
       <c r="C24">
         <v>32131</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H24">
         <v>32</v>
@@ -2485,22 +2665,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>776823206</v>
+        <v>5382040930</v>
       </c>
       <c r="C25">
-        <v>32650</v>
+        <v>32131</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H25">
         <v>32</v>
@@ -2511,22 +2691,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1310276544</v>
+        <v>1236555765</v>
       </c>
       <c r="C26">
-        <v>32141</v>
+        <v>32131</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H26">
         <v>32</v>
@@ -2537,22 +2717,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>926044995</v>
+        <v>926888461</v>
       </c>
       <c r="C27">
-        <v>32141</v>
+        <v>32131</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H27">
         <v>32</v>
@@ -2563,22 +2743,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5139061026</v>
+        <v>1283390324</v>
       </c>
       <c r="C28">
-        <v>32141</v>
+        <v>32131</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H28">
         <v>32</v>
@@ -2589,22 +2769,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6009006687</v>
+        <v>1028196304</v>
       </c>
       <c r="C29">
-        <v>32650</v>
+        <v>32131</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H29">
         <v>32</v>
@@ -2615,22 +2795,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>557226088</v>
+        <v>1418659301</v>
       </c>
       <c r="C30">
-        <v>32650</v>
+        <v>32131</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H30">
         <v>32</v>
@@ -2641,22 +2821,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1236555765</v>
+        <v>1994514098</v>
       </c>
       <c r="C31">
         <v>32131</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H31">
         <v>32</v>
@@ -2667,22 +2847,22 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>926888461</v>
+        <v>2026367676</v>
       </c>
       <c r="C32">
         <v>32131</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -2693,22 +2873,22 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1283390324</v>
+        <v>5237771279</v>
       </c>
       <c r="C33">
         <v>32131</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2719,22 +2899,22 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1028196304</v>
+        <v>1742325204</v>
       </c>
       <c r="C34">
         <v>32131</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -2745,22 +2925,22 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1418659301</v>
+        <v>5224528578</v>
       </c>
       <c r="C35">
         <v>32131</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -2771,22 +2951,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1994514098</v>
+        <v>451836660</v>
       </c>
       <c r="C36">
         <v>32131</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H36">
         <v>32</v>
@@ -2797,22 +2977,22 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2026367676</v>
+        <v>5718252642</v>
       </c>
       <c r="C37">
         <v>32131</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H37">
         <v>32</v>
@@ -2823,25 +3003,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5237771279</v>
+        <v>6637022351</v>
       </c>
       <c r="C38">
         <v>32131</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38">
-        <v>32</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2849,25 +3023,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1742325204</v>
+        <v>984669389</v>
       </c>
       <c r="C39">
         <v>32131</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2875,22 +3043,22 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5224528578</v>
+        <v>1310276544</v>
       </c>
       <c r="C40">
-        <v>32131</v>
+        <v>32141</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H40">
         <v>32</v>
@@ -2901,22 +3069,22 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>451836660</v>
+        <v>926044995</v>
       </c>
       <c r="C41">
-        <v>32131</v>
+        <v>32141</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H41">
         <v>32</v>
@@ -2927,22 +3095,22 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5718252642</v>
+        <v>5139061026</v>
       </c>
       <c r="C42">
-        <v>32131</v>
+        <v>32141</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H42">
         <v>32</v>
@@ -2959,16 +3127,16 @@
         <v>32141</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H43">
         <v>32</v>
@@ -2979,22 +3147,22 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1633651490</v>
+        <v>1798642805</v>
       </c>
       <c r="C44">
-        <v>32121</v>
+        <v>32151</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H44">
         <v>32</v>
@@ -3005,22 +3173,22 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1409136422</v>
+        <v>344431915</v>
       </c>
       <c r="C45">
-        <v>32121</v>
+        <v>32151</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H45">
         <v>32</v>
@@ -3031,22 +3199,22 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5987616441</v>
+        <v>2067796448</v>
       </c>
       <c r="C46">
-        <v>32121</v>
+        <v>32151</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H46">
         <v>32</v>
@@ -3057,22 +3225,22 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5583764562</v>
+        <v>715245598</v>
       </c>
       <c r="C47">
-        <v>32121</v>
+        <v>32161</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H47">
         <v>32</v>
@@ -3083,22 +3251,22 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5665830353</v>
+        <v>1493768521</v>
       </c>
       <c r="C48">
-        <v>32121</v>
+        <v>32161</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" t="s">
-        <v>197</v>
+        <v>206</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H48">
         <v>32</v>
@@ -3109,22 +3277,22 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5701325301</v>
+        <v>987123</v>
       </c>
       <c r="C49">
-        <v>32410</v>
+        <v>32189</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="H49">
         <v>32</v>
@@ -3135,19 +3303,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5518058205</v>
+        <v>5701325301</v>
       </c>
       <c r="C50">
         <v>32410</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3155,19 +3329,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6404021082</v>
+        <v>5518058205</v>
       </c>
       <c r="C51">
-        <v>32999</v>
+        <v>32410</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3175,19 +3349,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1413720360</v>
+        <v>2027685565</v>
       </c>
       <c r="C52">
-        <v>32121</v>
+        <v>32640</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="G52" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3195,19 +3375,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1340216138</v>
+        <v>776823206</v>
       </c>
       <c r="C53">
-        <v>32999</v>
+        <v>32650</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>113</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53">
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3215,19 +3401,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6473262382</v>
+        <v>6009006687</v>
       </c>
       <c r="C54">
-        <v>32111</v>
+        <v>32650</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>113</v>
+      </c>
+      <c r="G54" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3235,19 +3427,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6637022351</v>
+        <v>557226088</v>
       </c>
       <c r="C55">
-        <v>32131</v>
+        <v>32650</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="G55" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3255,19 +3453,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>984669389</v>
+        <v>5650448412</v>
       </c>
       <c r="C56">
-        <v>32131</v>
+        <v>32810</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="G56" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56">
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3275,19 +3479,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5898157449</v>
+        <v>650854863</v>
       </c>
       <c r="C57">
-        <v>32111</v>
+        <v>32810</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="G57" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57">
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3295,19 +3505,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>6542293321</v>
+        <v>982788680</v>
       </c>
       <c r="C58">
-        <v>32111</v>
+        <v>32810</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="G58" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3315,19 +3531,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1186041510</v>
+        <v>6404021082</v>
       </c>
       <c r="C59">
-        <v>32100</v>
+        <v>32999</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3335,19 +3551,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1302071261</v>
+        <v>1340216138</v>
       </c>
       <c r="C60">
         <v>32999</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3355,19 +3571,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>6668872645</v>
+        <v>1302071261</v>
       </c>
       <c r="C61">
-        <v>32111</v>
+        <v>32999</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3381,13 +3597,13 @@
         <v>32999</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3401,13 +3617,13 @@
         <v>32999</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3421,13 +3637,239 @@
         <v>32999</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F64" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6384023335</v>
+      </c>
+      <c r="C65">
+        <v>32999</v>
+      </c>
+      <c r="D65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>385204614</v>
+      </c>
+      <c r="C66">
+        <v>32999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5541074440</v>
+      </c>
+      <c r="C67">
+        <v>32020</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" t="s">
+        <v>251</v>
+      </c>
+      <c r="H67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1726624232</v>
+      </c>
+      <c r="C68">
+        <v>32999</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>628057886</v>
+      </c>
+      <c r="C69">
+        <v>32999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1493915501</v>
+      </c>
+      <c r="C70">
+        <v>32999</v>
+      </c>
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6470033110</v>
+      </c>
+      <c r="C71">
+        <v>32111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1198952423</v>
+      </c>
+      <c r="C72">
+        <v>32111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>863112721</v>
+      </c>
+      <c r="C73">
+        <v>32540</v>
+      </c>
+      <c r="D73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>722007011</v>
+      </c>
+      <c r="C74">
+        <v>32540</v>
+      </c>
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" t="s">
+        <v>264</v>
+      </c>
+      <c r="F74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5939321613</v>
+      </c>
+      <c r="C75">
+        <v>32540</v>
+      </c>
+      <c r="D75" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3453,10 +3895,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -3464,18 +3906,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -3489,19 +3931,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3513,24 +3955,24 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L4" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -3548,13 +3990,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -3565,13 +4007,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L6" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -3582,13 +4024,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L7" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -3602,13 +4044,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
         <v>162</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -3628,7 +4070,7 @@
         <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -3648,7 +4090,7 @@
         <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -3668,7 +4110,7 @@
         <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -3688,7 +4130,7 @@
         <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -3708,7 +4150,7 @@
         <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -3728,7 +4170,7 @@
         <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3748,7 +4190,7 @@
         <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -3768,7 +4210,7 @@
         <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -3788,7 +4230,7 @@
         <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3808,7 +4250,7 @@
         <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -3828,7 +4270,7 @@
         <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3855,10 +4297,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3930,22 +4372,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3956,10 +4398,10 @@
         <v>1029804860</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2734C1A9-84D3-4BBB-BEFD-1C86E84BD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563955D-9B13-4261-9995-F6C63CF6A9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
   <si>
     <t>NIP</t>
   </si>
@@ -237,9 +237,6 @@
     <t>RAHMATULLAH DAHLAN</t>
   </si>
   <si>
-    <t>Energi-31</t>
-  </si>
-  <si>
     <t>9517729ZY</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
     <t>FADLI HASBI</t>
   </si>
   <si>
+    <t>Nov-2023</t>
+  </si>
+  <si>
     <t>9010010F</t>
   </si>
   <si>
@@ -324,6 +324,9 @@
     <t>IBNU RUSYDI</t>
   </si>
   <si>
+    <t>Yanman@05</t>
+  </si>
+  <si>
     <t>9520542ZY</t>
   </si>
   <si>
@@ -828,6 +831,18 @@
     <t>081244665665</t>
   </si>
   <si>
+    <t>Catur TE Takalar</t>
+  </si>
+  <si>
+    <t>08114451704</t>
+  </si>
+  <si>
+    <t>ifan 2</t>
+  </si>
+  <si>
+    <t>081514891554</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
@@ -888,10 +903,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Nov-2023</t>
-  </si>
-  <si>
-    <t>Yanman@05</t>
+    <t>Energi-32</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1737,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5">
         <v>32141</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1765,13 +1777,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5">
         <v>32141</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1785,19 +1797,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5">
         <v>32121</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1977,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1985,13 +1997,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="5">
         <v>32540</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -2005,13 +2017,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="5">
         <v>32540</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -2053,7 +2065,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -2080,28 +2092,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2115,13 +2127,13 @@
         <v>32100</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2135,16 +2147,16 @@
         <v>32111</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2161,13 +2173,13 @@
         <v>32111</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2181,13 +2193,13 @@
         <v>32111</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2201,13 +2213,13 @@
         <v>32111</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2221,13 +2233,13 @@
         <v>32111</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2241,16 +2253,16 @@
         <v>32121</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -2267,16 +2279,16 @@
         <v>32121</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -2293,16 +2305,16 @@
         <v>32121</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -2319,16 +2331,16 @@
         <v>32121</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11">
         <v>32</v>
@@ -2345,16 +2357,16 @@
         <v>32121</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H12">
         <v>32</v>
@@ -2371,13 +2383,13 @@
         <v>32121</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2391,13 +2403,13 @@
         <v>32121</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2411,16 +2423,16 @@
         <v>32111</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>81321863455</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15">
         <v>32</v>
@@ -2437,16 +2449,16 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16">
         <v>32</v>
@@ -2463,16 +2475,16 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17">
         <v>32</v>
@@ -2489,16 +2501,16 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18">
         <v>32</v>
@@ -2515,16 +2527,16 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -2541,16 +2553,16 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20">
         <v>32</v>
@@ -2567,16 +2579,16 @@
         <v>32131</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21">
         <v>32</v>
@@ -2593,16 +2605,16 @@
         <v>32131</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22">
         <v>32</v>
@@ -2619,16 +2631,16 @@
         <v>32131</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>32</v>
@@ -2645,16 +2657,16 @@
         <v>32131</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24">
         <v>32</v>
@@ -2671,16 +2683,16 @@
         <v>32131</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25">
         <v>32</v>
@@ -2697,16 +2709,16 @@
         <v>32131</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26">
         <v>32</v>
@@ -2723,16 +2735,16 @@
         <v>32131</v>
       </c>
       <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
         <v>164</v>
       </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" t="s">
-        <v>163</v>
-      </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H27">
         <v>32</v>
@@ -2749,16 +2761,16 @@
         <v>32131</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28">
         <v>32</v>
@@ -2775,16 +2787,16 @@
         <v>32131</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29">
         <v>32</v>
@@ -2801,16 +2813,16 @@
         <v>32131</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30">
         <v>32</v>
@@ -2827,16 +2839,16 @@
         <v>32131</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H31">
         <v>32</v>
@@ -2853,16 +2865,16 @@
         <v>32131</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -2879,16 +2891,16 @@
         <v>32131</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2905,16 +2917,16 @@
         <v>32131</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -2931,16 +2943,16 @@
         <v>32131</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -2957,16 +2969,16 @@
         <v>32131</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36">
         <v>32</v>
@@ -2983,16 +2995,16 @@
         <v>32131</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H37">
         <v>32</v>
@@ -3009,13 +3021,13 @@
         <v>32131</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3029,13 +3041,13 @@
         <v>32131</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3049,16 +3061,16 @@
         <v>32141</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40">
         <v>32</v>
@@ -3075,16 +3087,16 @@
         <v>32141</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H41">
         <v>32</v>
@@ -3101,16 +3113,16 @@
         <v>32141</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42">
         <v>32</v>
@@ -3127,16 +3139,16 @@
         <v>32141</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43">
         <v>32</v>
@@ -3153,16 +3165,16 @@
         <v>32151</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H44">
         <v>32</v>
@@ -3182,13 +3194,13 @@
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45">
         <v>32</v>
@@ -3205,16 +3217,16 @@
         <v>32151</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46">
         <v>32</v>
@@ -3231,16 +3243,16 @@
         <v>32161</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47">
         <v>32</v>
@@ -3257,16 +3269,16 @@
         <v>32161</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H48">
         <v>32</v>
@@ -3283,16 +3295,16 @@
         <v>32189</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H49">
         <v>32</v>
@@ -3309,16 +3321,16 @@
         <v>32410</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H50">
         <v>32</v>
@@ -3335,13 +3347,13 @@
         <v>32410</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3355,16 +3367,16 @@
         <v>32640</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H52">
         <v>32</v>
@@ -3381,16 +3393,16 @@
         <v>32650</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H53">
         <v>32</v>
@@ -3407,16 +3419,16 @@
         <v>32650</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H54">
         <v>32</v>
@@ -3433,16 +3445,16 @@
         <v>32650</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H55">
         <v>32</v>
@@ -3459,16 +3471,16 @@
         <v>32810</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H56">
         <v>32</v>
@@ -3485,16 +3497,16 @@
         <v>32810</v>
       </c>
       <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" t="s">
         <v>226</v>
-      </c>
-      <c r="E57" t="s">
-        <v>227</v>
-      </c>
-      <c r="F57" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" t="s">
-        <v>225</v>
       </c>
       <c r="H57">
         <v>32</v>
@@ -3511,16 +3523,16 @@
         <v>32810</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H58">
         <v>32</v>
@@ -3537,13 +3549,13 @@
         <v>32999</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3557,13 +3569,13 @@
         <v>32999</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3577,13 +3589,13 @@
         <v>32999</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3597,13 +3609,13 @@
         <v>32999</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3617,13 +3629,13 @@
         <v>32999</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3637,13 +3649,13 @@
         <v>32999</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3657,13 +3669,13 @@
         <v>32999</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -3677,13 +3689,13 @@
         <v>32999</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3697,16 +3709,16 @@
         <v>32020</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H67">
         <v>32</v>
@@ -3723,13 +3735,13 @@
         <v>32999</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3743,13 +3755,13 @@
         <v>32999</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3763,13 +3775,13 @@
         <v>32999</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3783,13 +3795,13 @@
         <v>32111</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3803,13 +3815,13 @@
         <v>32111</v>
       </c>
       <c r="D72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" t="s">
         <v>260</v>
       </c>
-      <c r="E72" t="s">
-        <v>259</v>
-      </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3823,13 +3835,13 @@
         <v>32540</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3843,13 +3855,13 @@
         <v>32540</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -3863,13 +3875,53 @@
         <v>32540</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>98643112</v>
+      </c>
+      <c r="C76">
+        <v>32151</v>
+      </c>
+      <c r="D76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" t="s">
+        <v>269</v>
+      </c>
+      <c r="F76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5781371486</v>
+      </c>
+      <c r="C77">
+        <v>32540</v>
+      </c>
+      <c r="D77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F77" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3895,10 +3947,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -3906,18 +3958,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -3931,19 +3983,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3955,24 +4007,24 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -3990,13 +4042,13 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -4007,13 +4059,13 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -4024,13 +4076,13 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -4044,13 +4096,13 @@
         <v>32131</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -4064,13 +4116,13 @@
         <v>32131</v>
       </c>
       <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
         <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -4084,13 +4136,13 @@
         <v>32131</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -4104,13 +4156,13 @@
         <v>32131</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -4124,13 +4176,13 @@
         <v>32131</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -4144,13 +4196,13 @@
         <v>32131</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -4164,13 +4216,13 @@
         <v>32131</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -4184,13 +4236,13 @@
         <v>32131</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4204,13 +4256,13 @@
         <v>32131</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4224,13 +4276,13 @@
         <v>32131</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4244,13 +4296,13 @@
         <v>32131</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4264,13 +4316,13 @@
         <v>32131</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4297,10 +4349,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4372,22 +4424,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4398,10 +4450,10 @@
         <v>1029804860</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1813,7 +1813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L64" sqref="L64"/>
@@ -4381,6 +4381,32 @@
       <c r="F83" t="inlineStr">
         <is>
           <t>owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32111</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Grup Laporan Dalsut</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>081321863455</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>admin</t>
         </is>
       </c>
     </row>

--- a/data/listuser/listuser.xlsx
+++ b/data/listuser/listuser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE i7\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD17CC-5193-423A-8A25-0BB6B1F091E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F09596-61C4-4433-8565-5520F50181F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
   <si>
     <t>NIP</t>
   </si>
@@ -928,6 +928,12 @@
   </si>
   <si>
     <t>081321863455</t>
+  </si>
+  <si>
+    <t>Pak Irhas</t>
+  </si>
+  <si>
+    <t>081278493630</t>
   </si>
   <si>
     <t>nama</t>
@@ -2279,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,6 +4283,32 @@
         <v>132</v>
       </c>
       <c r="H84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6167290309</v>
+      </c>
+      <c r="C85">
+        <v>32111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85">
         <v>32</v>
       </c>
     </row>
@@ -4306,7 +4338,7 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4314,18 +4346,18 @@
         <v>1608202628</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3">
         <v>32640</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -4339,19 +4371,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>32810</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -4363,10 +4395,10 @@
         <v>32810</v>
       </c>
       <c r="K4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M4" t="s">
         <v>129</v>
@@ -4374,13 +4406,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <v>32810</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -4398,10 +4430,10 @@
         <v>32810</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M5" t="s">
         <v>129</v>
@@ -4415,10 +4447,10 @@
         <v>32810</v>
       </c>
       <c r="K6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M6" t="s">
         <v>129</v>
@@ -4432,10 +4464,10 @@
         <v>32620</v>
       </c>
       <c r="K7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M7" t="s">
         <v>179</v>
@@ -4783,16 +4815,16 @@
         <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>124</v>
